--- a/king_index/output/pe/semiconductor_pe_original_data.xlsx
+++ b/king_index/output/pe/semiconductor_pe_original_data.xlsx
@@ -1209,10 +1209,10 @@
         <v>16.15680291568154</v>
       </c>
       <c r="E4" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="F4" t="n">
-        <v>16.69389072913562</v>
+        <v>16.00778553330716</v>
       </c>
       <c r="G4" t="n">
         <v>0.006625901115189067</v>
@@ -1574,13 +1574,13 @@
         <v>143.2973401036164</v>
       </c>
       <c r="D6" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E6" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F6" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G6" t="n">
         <v>1.206981848692743</v>
@@ -1753,13 +1753,13 @@
         <v>142.5818406043498</v>
       </c>
       <c r="D7" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E7" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F7" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G7" t="n">
         <v>1.194948652975246</v>
@@ -1932,13 +1932,13 @@
         <v>140.6842675178948</v>
       </c>
       <c r="D8" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E8" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F8" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G8" t="n">
         <v>1.151629148365755</v>
@@ -2111,13 +2111,13 @@
         <v>142.4446071104461</v>
       </c>
       <c r="D9" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E9" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F9" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G9" t="n">
         <v>1.185845278798974</v>
@@ -2290,13 +2290,13 @@
         <v>145.5209766916334</v>
       </c>
       <c r="D10" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E10" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F10" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G10" t="n">
         <v>1.20018047721753</v>
@@ -2469,13 +2469,13 @@
         <v>135.6471265881693</v>
       </c>
       <c r="D11" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E11" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F11" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G11" t="n">
         <v>1.109251372149029</v>
@@ -2648,13 +2648,13 @@
         <v>132.9185367983207</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E12" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F12" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G12" t="n">
         <v>1.096485721029662</v>
@@ -2827,13 +2827,13 @@
         <v>125.9848800918663</v>
       </c>
       <c r="D13" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E13" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F13" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G13" t="n">
         <v>1.109146735653582</v>
@@ -3006,13 +3006,13 @@
         <v>124.5316846646619</v>
       </c>
       <c r="D14" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E14" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F14" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G14" t="n">
         <v>1.082778341583789</v>
@@ -3185,13 +3185,13 @@
         <v>128.6903390319629</v>
       </c>
       <c r="D15" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E15" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F15" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G15" t="n">
         <v>1.11615738011969</v>
@@ -3364,13 +3364,13 @@
         <v>129.948265933472</v>
       </c>
       <c r="D16" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E16" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F16" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G16" t="n">
         <v>1.129027667734504</v>
@@ -3543,13 +3543,13 @@
         <v>132.851054319424</v>
       </c>
       <c r="D17" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E17" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F17" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G17" t="n">
         <v>1.145246322806072</v>
@@ -3722,13 +3722,13 @@
         <v>131.9900267379437</v>
       </c>
       <c r="D18" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E18" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F18" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G18" t="n">
         <v>1.150896692963885</v>
@@ -3901,13 +3901,13 @@
         <v>135.5135107383366</v>
       </c>
       <c r="D19" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E19" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F19" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G19" t="n">
         <v>1.213364674252426</v>
@@ -4080,13 +4080,13 @@
         <v>136.8655319219125</v>
       </c>
       <c r="D20" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E20" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F20" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G20" t="n">
         <v>1.213678583672509</v>
@@ -4259,13 +4259,13 @@
         <v>135.5373045477901</v>
       </c>
       <c r="D21" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E21" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F21" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G21" t="n">
         <v>1.15832588341178</v>
@@ -4438,13 +4438,13 @@
         <v>133.4170553591644</v>
       </c>
       <c r="D22" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E22" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F22" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G22" t="n">
         <v>1.12881839474361</v>
@@ -4617,13 +4617,13 @@
         <v>135.1253817872288</v>
       </c>
       <c r="D23" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E23" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F23" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G23" t="n">
         <v>1.160732522542028</v>
@@ -4796,13 +4796,13 @@
         <v>132.4112769812821</v>
       </c>
       <c r="D24" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E24" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F24" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G24" t="n">
         <v>1.12379584349222</v>
@@ -4975,13 +4975,13 @@
         <v>129.8298603095301</v>
       </c>
       <c r="D25" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E25" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F25" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G25" t="n">
         <v>1.098578450739827</v>
@@ -5154,13 +5154,13 @@
         <v>126.9607629043563</v>
       </c>
       <c r="D26" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E26" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F26" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G26" t="n">
         <v>1.078802155154353</v>
@@ -5333,13 +5333,13 @@
         <v>129.5584453065117</v>
       </c>
       <c r="D27" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E27" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F27" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G27" t="n">
         <v>1.083824706405742</v>
@@ -5512,13 +5512,13 @@
         <v>129.3013085827548</v>
       </c>
       <c r="D28" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E28" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F28" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G28" t="n">
         <v>1.064257683811162</v>
@@ -5691,13 +5691,13 @@
         <v>132.3626213435614</v>
       </c>
       <c r="D29" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E29" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F29" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G29" t="n">
         <v>1.156233153701615</v>
@@ -5870,13 +5870,13 @@
         <v>141.5566068964464</v>
       </c>
       <c r="D30" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E30" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F30" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G30" t="n">
         <v>1.206877212197296</v>
@@ -6049,13 +6049,13 @@
         <v>140.8672948493729</v>
       </c>
       <c r="D31" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E31" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F31" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G31" t="n">
         <v>1.184485004490679</v>
@@ -6228,13 +6228,13 @@
         <v>137.553541837817</v>
       </c>
       <c r="D32" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E32" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F32" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G32" t="n">
         <v>1.14681587010526</v>
@@ -6407,13 +6407,13 @@
         <v>136.8583839053638</v>
       </c>
       <c r="D33" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E33" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F33" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G33" t="n">
         <v>1.084033979396636</v>
@@ -6586,13 +6586,13 @@
         <v>136.263574366804</v>
       </c>
       <c r="D34" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E34" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F34" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G34" t="n">
         <v>1.063734501400185</v>
@@ -6765,13 +6765,13 @@
         <v>135.5842013995696</v>
       </c>
       <c r="D35" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E35" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F35" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G35" t="n">
         <v>1.088114802321519</v>
@@ -6944,13 +6944,13 @@
         <v>134.4214206340937</v>
       </c>
       <c r="D36" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E36" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F36" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G36" t="n">
         <v>1.083196887499318</v>
@@ -7123,13 +7123,13 @@
         <v>128.5547672018816</v>
       </c>
       <c r="D37" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E37" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F37" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G37" t="n">
         <v>1.05358476240196</v>
@@ -7302,13 +7302,13 @@
         <v>127.8187876175761</v>
       </c>
       <c r="D38" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E38" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F38" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G38" t="n">
         <v>1.026483912930296</v>
@@ -7481,13 +7481,13 @@
         <v>124.8637261130159</v>
       </c>
       <c r="D39" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E39" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F39" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G39" t="n">
         <v>0.9798160408640512</v>
@@ -7660,13 +7660,13 @@
         <v>124.6824892010621</v>
       </c>
       <c r="D40" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E40" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F40" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G40" t="n">
         <v>0.8928457421550668</v>
@@ -7839,13 +7839,13 @@
         <v>123.8391047715163</v>
       </c>
       <c r="D41" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E41" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F41" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G41" t="n">
         <v>0.9050840123612158</v>
@@ -8018,13 +8018,13 @@
         <v>123.6841196766438</v>
       </c>
       <c r="D42" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E42" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F42" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G42" t="n">
         <v>0.9023441011388341</v>
@@ -8197,13 +8197,13 @@
         <v>116.4756886110399</v>
       </c>
       <c r="D43" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E43" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F43" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G43" t="n">
         <v>0.9233500873096119</v>
@@ -8376,13 +8376,13 @@
         <v>119.808202864041</v>
       </c>
       <c r="D44" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E44" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F44" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G44" t="n">
         <v>0.9251766947911997</v>
@@ -8555,13 +8555,13 @@
         <v>121.4524654205505</v>
       </c>
       <c r="D45" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E45" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F45" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G45" t="n">
         <v>0.9699285783551367</v>
@@ -8734,13 +8734,13 @@
         <v>124.7741013366401</v>
       </c>
       <c r="D46" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E46" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F46" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G46" t="n">
         <v>1.02180423112377</v>
@@ -8913,13 +8913,13 @@
         <v>122.5560717742463</v>
       </c>
       <c r="D47" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E47" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F47" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G47" t="n">
         <v>1.01376715817828</v>
@@ -9092,13 +9092,13 @@
         <v>124.5222414225832</v>
       </c>
       <c r="D48" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E48" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F48" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G48" t="n">
         <v>1.02107358817089</v>
@@ -9271,13 +9271,13 @@
         <v>126.3985336966206</v>
       </c>
       <c r="D49" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E49" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F49" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G49" t="n">
         <v>1.003720816963288</v>
@@ -9450,13 +9450,13 @@
         <v>136.860756443122</v>
       </c>
       <c r="D50" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E50" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F50" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G50" t="n">
         <v>1.204464980342694</v>
@@ -9629,13 +9629,13 @@
         <v>132.2527763286698</v>
       </c>
       <c r="D51" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E51" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F51" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G51" t="n">
         <v>1.214419991196858</v>
@@ -9808,13 +9808,13 @@
         <v>123.6622766697077</v>
       </c>
       <c r="D52" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E52" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F52" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G52" t="n">
         <v>1.137976467655099</v>
@@ -9987,13 +9987,13 @@
         <v>117.3005010739664</v>
       </c>
       <c r="D53" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E53" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F53" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G53" t="n">
         <v>1.095507843443147</v>
@@ -10166,13 +10166,13 @@
         <v>118.5117789280266</v>
       </c>
       <c r="D54" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E54" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F54" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G54" t="n">
         <v>1.098613076175098</v>
@@ -10345,13 +10345,13 @@
         <v>117.037159967247</v>
       </c>
       <c r="D55" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E55" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F55" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G55" t="n">
         <v>1.095781834591889</v>
@@ -10524,13 +10524,13 @@
         <v>117.6048657310743</v>
       </c>
       <c r="D56" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E56" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F56" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G56" t="n">
         <v>1.093772566322387</v>
@@ -10703,13 +10703,13 @@
         <v>116.8931711759081</v>
       </c>
       <c r="D57" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E57" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F57" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G57" t="n">
         <v>1.051303942110434</v>
@@ -10882,13 +10882,13 @@
         <v>117.3841104593092</v>
       </c>
       <c r="D58" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E58" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F58" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G58" t="n">
         <v>1.057605738001423</v>
@@ -11061,13 +11061,13 @@
         <v>116.7280941865196</v>
       </c>
       <c r="D59" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E59" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F59" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G59" t="n">
         <v>1.04618944117524</v>
@@ -11240,13 +11240,13 @@
         <v>116.3699021946842</v>
       </c>
       <c r="D60" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E60" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F60" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G60" t="n">
         <v>1.069113365188433</v>
@@ -11419,13 +11419,13 @@
         <v>117.4907018663286</v>
       </c>
       <c r="D61" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E61" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F61" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G61" t="n">
         <v>1.054865826712782</v>
@@ -11598,13 +11598,13 @@
         <v>116.4756123650546</v>
       </c>
       <c r="D62" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E62" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F62" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G62" t="n">
         <v>1.079342367125081</v>
@@ -11777,13 +11777,13 @@
         <v>114.6945161686031</v>
       </c>
       <c r="D63" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E63" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F63" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G63" t="n">
         <v>1.023813499393272</v>
@@ -11956,13 +11956,13 @@
         <v>115.800903073655</v>
       </c>
       <c r="D64" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E64" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F64" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G64" t="n">
         <v>0.977235008347747</v>
@@ -12135,13 +12135,13 @@
         <v>117.4891600718851</v>
       </c>
       <c r="D65" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E65" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F65" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G65" t="n">
         <v>1.00819600530643</v>
@@ -12314,13 +12314,13 @@
         <v>117.9236438212286</v>
       </c>
       <c r="D66" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E66" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F66" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G66" t="n">
         <v>1.025457446086945</v>
@@ -12493,13 +12493,13 @@
         <v>120.3352795065129</v>
       </c>
       <c r="D67" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E67" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F67" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G67" t="n">
         <v>1.023174186734961</v>
@@ -12672,13 +12672,13 @@
         <v>118.4227880401827</v>
       </c>
       <c r="D68" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E68" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F68" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G68" t="n">
         <v>0.968101970873549</v>
@@ -12851,13 +12851,13 @@
         <v>117.9313677561862</v>
       </c>
       <c r="D69" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E69" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F69" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G69" t="n">
         <v>0.948465940313962</v>
@@ -13030,13 +13030,13 @@
         <v>120.8199666152601</v>
       </c>
       <c r="D70" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E70" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F70" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G70" t="n">
         <v>0.9520278249163101</v>
@@ -13209,13 +13209,13 @@
         <v>121.3353480494482</v>
       </c>
       <c r="D71" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E71" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F71" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G71" t="n">
         <v>0.9571423259177632</v>
@@ -13388,13 +13388,13 @@
         <v>119.0487199097246</v>
       </c>
       <c r="D72" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E72" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F72" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G72" t="n">
         <v>0.9607042105201112</v>
@@ -13567,13 +13567,13 @@
         <v>121.2845199926891</v>
       </c>
       <c r="D73" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E73" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F73" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G73" t="n">
         <v>0.9553157184361752</v>
@@ -13746,13 +13746,13 @@
         <v>121.4720113867211</v>
       </c>
       <c r="D74" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E74" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F74" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G74" t="n">
         <v>0.958968933399351</v>
@@ -13925,13 +13925,13 @@
         <v>122.847984357774</v>
       </c>
       <c r="D75" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E75" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F75" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G75" t="n">
         <v>1.002533522073752</v>
@@ -14104,13 +14104,13 @@
         <v>119.7565427829204</v>
       </c>
       <c r="D76" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E76" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F76" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G76" t="n">
         <v>0.9498358959251528</v>
@@ -14283,13 +14283,13 @@
         <v>116.8881864435435</v>
       </c>
       <c r="D77" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E77" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F77" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G77" t="n">
         <v>0.8973209305644677</v>
@@ -14462,13 +14462,13 @@
         <v>117.7388320568907</v>
       </c>
       <c r="D78" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E78" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F78" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G78" t="n">
         <v>0.9122991119929985</v>
@@ -14641,13 +14641,13 @@
         <v>117.3410135373193</v>
       </c>
       <c r="D79" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E79" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F79" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G79" t="n">
         <v>0.8795115074864687</v>
@@ -14820,13 +14820,13 @@
         <v>120.2568477069466</v>
       </c>
       <c r="D80" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E80" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F80" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G80" t="n">
         <v>0.9219801316984211</v>
@@ -14999,13 +14999,13 @@
         <v>116.2470012879772</v>
       </c>
       <c r="D81" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E81" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F81" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G81" t="n">
         <v>0.8894665183406331</v>
@@ -15178,13 +15178,13 @@
         <v>119.1578315557557</v>
       </c>
       <c r="D82" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E82" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F82" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G82" t="n">
         <v>0.905723325019527</v>
@@ -15357,13 +15357,13 @@
         <v>118.363120972006</v>
       </c>
       <c r="D83" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E83" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F83" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G83" t="n">
         <v>0.849372483841493</v>
@@ -15536,13 +15536,13 @@
         <v>115.2029902905334</v>
       </c>
       <c r="D84" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E84" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F84" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G84" t="n">
         <v>0.8491898231198378</v>
@@ -15715,13 +15715,13 @@
         <v>113.9820341861799</v>
       </c>
       <c r="D85" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E85" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F85" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G85" t="n">
         <v>0.8219733714851579</v>
@@ -15894,13 +15894,13 @@
         <v>115.3363600092894</v>
       </c>
       <c r="D86" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E86" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F86" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G86" t="n">
         <v>0.8265398901891274</v>
@@ -16073,13 +16073,13 @@
         <v>117.0468062448102</v>
       </c>
       <c r="D87" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E87" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F87" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G87" t="n">
         <v>0.8370428832745163</v>
@@ -16252,13 +16252,13 @@
         <v>119.6199264230856</v>
       </c>
       <c r="D88" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E88" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F88" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G88" t="n">
         <v>0.8630720400859195</v>
@@ -16431,13 +16431,13 @@
         <v>123.0133029774975</v>
       </c>
       <c r="D89" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E89" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F89" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G89" t="n">
         <v>0.8480938586573887</v>
@@ -16610,13 +16610,13 @@
         <v>127.3584906119025</v>
       </c>
       <c r="D90" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E90" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F90" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G90" t="n">
         <v>0.859144833974002</v>
@@ -16789,13 +16789,13 @@
         <v>125.9077016127214</v>
       </c>
       <c r="D91" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E91" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F91" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G91" t="n">
         <v>0.8347596239225316</v>
@@ -16968,13 +16968,13 @@
         <v>124.2265216742387</v>
       </c>
       <c r="D92" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E92" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F92" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G92" t="n">
         <v>0.7592294041215667</v>
@@ -17147,13 +17147,13 @@
         <v>124.1910658144669</v>
       </c>
       <c r="D93" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E93" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F93" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G93" t="n">
         <v>0.7497310452040583</v>
@@ -17326,13 +17326,13 @@
         <v>127.3512577444443</v>
       </c>
       <c r="D94" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E94" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F94" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G94" t="n">
         <v>0.7353008460067521</v>
@@ -17505,13 +17505,13 @@
         <v>129.4852733394268</v>
       </c>
       <c r="D95" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E95" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F95" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G95" t="n">
         <v>0.7313736398948347</v>
@@ -17684,13 +17684,13 @@
         <v>132.1351686509454</v>
       </c>
       <c r="D96" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E96" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F96" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G96" t="n">
         <v>0.6924669002852304</v>
@@ -17863,13 +17863,13 @@
         <v>133.0915350581691</v>
       </c>
       <c r="D97" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E97" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F97" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G97" t="n">
         <v>0.7532015993793196</v>
@@ -18042,13 +18042,13 @@
         <v>131.3019481593783</v>
       </c>
       <c r="D98" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E98" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F98" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G98" t="n">
         <v>0.758042109232031</v>
@@ -18221,13 +18221,13 @@
         <v>137.2070362821817</v>
       </c>
       <c r="D99" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E99" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F99" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G99" t="n">
         <v>0.7863545253954188</v>
@@ -18400,13 +18400,13 @@
         <v>134.310283432953</v>
       </c>
       <c r="D100" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E100" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F100" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G100" t="n">
         <v>0.7860805342466771</v>
@@ -18579,13 +18579,13 @@
         <v>134.7128566654458</v>
       </c>
       <c r="D101" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E101" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F101" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G101" t="n">
         <v>0.7761255234587718</v>
@@ -18758,13 +18758,13 @@
         <v>133.9979148891767</v>
       </c>
       <c r="D102" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E102" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F102" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G102" t="n">
         <v>0.7739335944676147</v>
@@ -18937,13 +18937,13 @@
         <v>131.2008323080895</v>
       </c>
       <c r="D103" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E103" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F103" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G103" t="n">
         <v>0.7470824642762451</v>
@@ -19116,13 +19116,13 @@
         <v>131.7227209168523</v>
       </c>
       <c r="D104" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E104" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F104" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G104" t="n">
         <v>0.7323782739964562</v>
@@ -19295,13 +19295,13 @@
         <v>130.9562284356376</v>
       </c>
       <c r="D105" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E105" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F105" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G105" t="n">
         <v>0.737766766080392</v>
@@ -19474,13 +19474,13 @@
         <v>129.6348416381135</v>
       </c>
       <c r="D106" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E106" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F106" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G106" t="n">
         <v>0.7443425530538634</v>
@@ -19653,13 +19653,13 @@
         <v>124.3586393295869</v>
       </c>
       <c r="D107" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E107" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F107" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G107" t="n">
         <v>0.7720156565589402</v>
@@ -19832,13 +19832,13 @@
         <v>122.6014219864317</v>
       </c>
       <c r="D108" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E108" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F108" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G108" t="n">
         <v>0.7840712660434341</v>
@@ -20011,13 +20011,13 @@
         <v>123.2848329551095</v>
       </c>
       <c r="D109" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E109" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F109" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G109" t="n">
         <v>0.7963095362495831</v>
@@ -20190,13 +20190,13 @@
         <v>124.4471634016179</v>
       </c>
       <c r="D110" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E110" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F110" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G110" t="n">
         <v>0.7897337492761116</v>
@@ -20369,13 +20369,13 @@
         <v>119.4182935601361</v>
       </c>
       <c r="D111" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E111" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F111" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G111" t="n">
         <v>0.7410546596002572</v>
@@ -20548,13 +20548,13 @@
         <v>119.4972103841797</v>
       </c>
       <c r="D112" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E112" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F112" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G112" t="n">
         <v>0.7963095362495831</v>
@@ -20727,13 +20727,13 @@
         <v>112.4405046228949</v>
       </c>
       <c r="D113" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E113" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F113" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G113" t="n">
         <v>0.7562155017504432</v>
@@ -20906,13 +20906,13 @@
         <v>115.4613979345329</v>
       </c>
       <c r="D114" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E114" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F114" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G114" t="n">
         <v>0.767175146706229</v>
@@ -21085,13 +21085,13 @@
         <v>117.7408736880986</v>
       </c>
       <c r="D115" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E115" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F115" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G115" t="n">
         <v>0.7472651250641593</v>
@@ -21264,13 +21264,13 @@
         <v>117.6992261976448</v>
       </c>
       <c r="D116" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E116" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F116" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G116" t="n">
         <v>0.7434292493130695</v>
@@ -21443,13 +21443,13 @@
         <v>121.9345779842957</v>
       </c>
       <c r="D117" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E117" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F117" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G117" t="n">
         <v>0.7660791822437799</v>
@@ -21622,13 +21622,13 @@
         <v>120.1251293543889</v>
       </c>
       <c r="D118" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E118" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F118" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G118" t="n">
         <v>0.7944829287017363</v>
@@ -21801,13 +21801,13 @@
         <v>117.1692322995441</v>
       </c>
       <c r="D119" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E119" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F119" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G119" t="n">
         <v>0.786993837987471</v>
@@ -21980,13 +21980,13 @@
         <v>116.7328853733775</v>
       </c>
       <c r="D120" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E120" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F120" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G120" t="n">
         <v>0.7783174524499289</v>
@@ -22159,13 +22159,13 @@
         <v>117.4941134493544</v>
       </c>
       <c r="D121" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E121" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F121" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G121" t="n">
         <v>0.7909210440993883</v>
@@ -22338,13 +22338,13 @@
         <v>111.5345010392709</v>
       </c>
       <c r="D122" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E122" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F122" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G122" t="n">
         <v>0.6153895604689125</v>
@@ -22517,13 +22517,13 @@
         <v>107.7201218966898</v>
       </c>
       <c r="D123" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E123" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F123" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G123" t="n">
         <v>0.6007766812023198</v>
@@ -22696,13 +22696,13 @@
         <v>111.6974428124289</v>
       </c>
       <c r="D124" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E124" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F124" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G124" t="n">
         <v>0.6212347121092905</v>
@@ -22875,13 +22875,13 @@
         <v>113.6168357988233</v>
       </c>
       <c r="D125" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E125" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F125" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G125" t="n">
         <v>0.6404187997601439</v>
@@ -23054,13 +23054,13 @@
         <v>111.6803449003492</v>
       </c>
       <c r="D126" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E126" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F126" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G126" t="n">
         <v>0.663274841615189</v>
@@ -23233,13 +23233,13 @@
         <v>108.3430316663428</v>
       </c>
       <c r="D127" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E127" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F127" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G127" t="n">
         <v>0.6527835437090815</v>
@@ -23412,13 +23412,13 @@
         <v>106.6892947812383</v>
       </c>
       <c r="D128" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E128" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F128" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G128" t="n">
         <v>0.6555562438657219</v>
@@ -23591,13 +23591,13 @@
         <v>101.3817404346794</v>
       </c>
       <c r="D129" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E129" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F129" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G129" t="n">
         <v>0.6670217337671082</v>
@@ -23770,13 +23770,13 @@
         <v>93.70654981545424</v>
       </c>
       <c r="D130" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E130" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F130" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G130" t="n">
         <v>0.6281289936264161</v>
@@ -23949,13 +23949,13 @@
         <v>93.67047816994793</v>
       </c>
       <c r="D131" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E131" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F131" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G131" t="n">
         <v>0.6048233246813364</v>
@@ -24128,13 +24128,13 @@
         <v>97.31033825872466</v>
       </c>
       <c r="D132" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E132" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F132" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G132" t="n">
         <v>0.6099190979708414</v>
@@ -24307,13 +24307,13 @@
         <v>95.8021570988552</v>
       </c>
       <c r="D133" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E133" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F133" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G133" t="n">
         <v>0.5980039810456795</v>
@@ -24486,13 +24486,13 @@
         <v>91.7607830704644</v>
       </c>
       <c r="D134" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E134" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F134" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G134" t="n">
         <v>0.5511678296436324</v>
@@ -24665,13 +24665,13 @@
         <v>90.90288496729416</v>
       </c>
       <c r="D135" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E135" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F135" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G135" t="n">
         <v>0.5373043288604308</v>
@@ -24844,13 +24844,13 @@
         <v>97.15013300892451</v>
       </c>
       <c r="D136" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E136" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F136" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G136" t="n">
         <v>0.5402269047137493</v>
@@ -25023,13 +25023,13 @@
         <v>96.85414340507486</v>
       </c>
       <c r="D137" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E137" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F137" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G137" t="n">
         <v>0.5345316287037906</v>
@@ -25202,13 +25202,13 @@
         <v>96.33929870640509</v>
       </c>
       <c r="D138" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E138" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F138" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G138" t="n">
         <v>0.5357306341446981</v>
@@ -25381,13 +25381,13 @@
         <v>96.37414757787425</v>
       </c>
       <c r="D139" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E139" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F139" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G139" t="n">
         <v>0.543299356197487</v>
@@ -25560,13 +25560,13 @@
         <v>96.16993969173471</v>
       </c>
       <c r="D140" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E140" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F140" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G140" t="n">
         <v>0.5395524641118269</v>
@@ -25739,13 +25739,13 @@
         <v>93.66613040914021</v>
       </c>
       <c r="D141" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E141" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F141" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G141" t="n">
         <v>0.5096522650429782</v>
@@ -25918,13 +25918,13 @@
         <v>94.1960065299058</v>
       </c>
       <c r="D142" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E142" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F142" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G142" t="n">
         <v>0.5108512705501449</v>
@@ -26097,13 +26097,13 @@
         <v>95.96963004303251</v>
       </c>
       <c r="D143" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E143" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F143" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G143" t="n">
         <v>0.5195440602286319</v>
@@ -26276,13 +26276,13 @@
         <v>96.64064713707809</v>
       </c>
       <c r="D144" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E144" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F144" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G144" t="n">
         <v>0.5214924441529305</v>
@@ -26455,13 +26455,13 @@
         <v>96.12786632673368</v>
       </c>
       <c r="D145" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E145" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F145" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G145" t="n">
         <v>0.51782048988248</v>
@@ -26634,13 +26634,13 @@
         <v>96.13194759920164</v>
       </c>
       <c r="D146" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E146" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F146" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G146" t="n">
         <v>0.519319246716744</v>
@@ -26813,13 +26813,13 @@
         <v>99.78519601795931</v>
       </c>
       <c r="D147" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E147" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F147" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G147" t="n">
         <v>0.5362551990499423</v>
@@ -26992,13 +26992,13 @@
         <v>105.6935118868345</v>
       </c>
       <c r="D148" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E148" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F148" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G148" t="n">
         <v>0.5705767308063737</v>
@@ -27171,13 +27171,13 @@
         <v>104.875067494307</v>
       </c>
       <c r="D149" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E149" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F149" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G149" t="n">
         <v>0.564281952009702</v>
@@ -27350,13 +27350,13 @@
         <v>105.8521390943799</v>
       </c>
       <c r="D150" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E150" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F150" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G150" t="n">
         <v>0.5755226283992005</v>
@@ -27529,13 +27529,13 @@
         <v>105.0938702121033</v>
       </c>
       <c r="D151" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E151" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F151" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G151" t="n">
         <v>0.5552144731226489</v>
@@ -27708,13 +27708,13 @@
         <v>103.6293952223408</v>
       </c>
       <c r="D152" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E152" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F152" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G152" t="n">
         <v>0.5545400325207266</v>
@@ -27887,13 +27887,13 @@
         <v>99.37343656084023</v>
       </c>
       <c r="D153" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E153" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F153" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G153" t="n">
         <v>0.5415008479698666</v>
@@ -28066,13 +28066,13 @@
         <v>98.67551225149823</v>
       </c>
       <c r="D154" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E154" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F154" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G154" t="n">
         <v>0.5316839906656816</v>
@@ -28245,13 +28245,13 @@
         <v>98.98922859412579</v>
       </c>
       <c r="D155" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E155" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F155" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G155" t="n">
         <v>0.5406765317375249</v>
@@ -28424,13 +28424,13 @@
         <v>98.26890775180547</v>
       </c>
       <c r="D156" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E156" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F156" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G156" t="n">
         <v>0.5403018425289589</v>
@@ -28603,13 +28603,13 @@
         <v>98.08371007734499</v>
       </c>
       <c r="D157" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E157" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F157" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G157" t="n">
         <v>0.5444983617046537</v>
@@ -28782,13 +28782,13 @@
         <v>99.51890874951512</v>
       </c>
       <c r="D158" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E158" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F158" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G158" t="n">
         <v>0.5613593762226425</v>
@@ -28961,13 +28961,13 @@
         <v>98.3810914959746</v>
       </c>
       <c r="D159" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E159" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F159" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G159" t="n">
         <v>0.5465966212593716</v>
@@ -29140,13 +29140,13 @@
         <v>98.09793533527699</v>
       </c>
       <c r="D160" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E160" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F160" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G160" t="n">
         <v>0.5456973671455614</v>
@@ -29319,13 +29319,13 @@
         <v>98.99109064520796</v>
       </c>
       <c r="D161" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E161" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F161" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G161" t="n">
         <v>0.5897608183909682</v>
@@ -29498,13 +29498,13 @@
         <v>97.39422918466204</v>
       </c>
       <c r="D162" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E162" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F162" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G162" t="n">
         <v>0.6087200924636748</v>
@@ -29677,13 +29677,13 @@
         <v>98.55897545408837</v>
       </c>
       <c r="D163" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E163" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F163" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G163" t="n">
         <v>0.6208600229007245</v>
@@ -29856,13 +29856,13 @@
         <v>96.43481778866926</v>
       </c>
       <c r="D164" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E164" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F164" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G164" t="n">
         <v>0.6315761343849787</v>
@@ -30035,13 +30035,13 @@
         <v>94.38006855927961</v>
       </c>
       <c r="D165" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E165" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F165" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G165" t="n">
         <v>0.5297131078315561</v>
@@ -30214,13 +30214,13 @@
         <v>89.41524728073063</v>
       </c>
       <c r="D166" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E166" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F166" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G166" t="n">
         <v>0.5115423430252335</v>
@@ -30393,13 +30393,13 @@
         <v>86.06866286989957</v>
       </c>
       <c r="D167" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E167" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F167" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G167" t="n">
         <v>0.4986366055142727</v>
@@ -30572,13 +30572,13 @@
         <v>85.70915472278263</v>
       </c>
       <c r="D168" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E168" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F168" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G168" t="n">
         <v>0.4723756768684075</v>
@@ -30751,13 +30751,13 @@
         <v>81.8461822803818</v>
       </c>
       <c r="D169" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E169" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F169" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G169" t="n">
         <v>0.458378409345578</v>
@@ -30930,13 +30930,13 @@
         <v>80.8937650289072</v>
       </c>
       <c r="D170" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E170" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F170" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G170" t="n">
         <v>0.4484904312752979</v>
@@ -31109,13 +31109,13 @@
         <v>81.2418036096297</v>
       </c>
       <c r="D171" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E171" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F171" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G171" t="n">
         <v>0.4538838738349929</v>
@@ -31288,13 +31288,13 @@
         <v>83.14853694471363</v>
       </c>
       <c r="D172" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E172" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F172" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G172" t="n">
         <v>0.4633223983475886</v>
@@ -31467,13 +31467,13 @@
         <v>82.67395223049003</v>
       </c>
       <c r="D173" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E173" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F173" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G173" t="n">
         <v>0.4608183000305001</v>
@@ -31646,13 +31646,13 @@
         <v>82.56997337908764</v>
       </c>
       <c r="D174" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E174" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F174" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G174" t="n">
         <v>0.4642213053966985</v>
@@ -31825,13 +31825,13 @@
         <v>83.36039962717798</v>
       </c>
       <c r="D175" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E175" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F175" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G175" t="n">
         <v>0.4617172070796098</v>
@@ -32004,13 +32004,13 @@
         <v>83.58223731228085</v>
       </c>
       <c r="D176" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E176" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F176" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G176" t="n">
         <v>0.4555532727351383</v>
@@ -32183,13 +32183,13 @@
         <v>84.04593434917768</v>
       </c>
       <c r="D177" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E177" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F177" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G177" t="n">
         <v>0.4683305949817659</v>
@@ -32362,13 +32362,13 @@
         <v>83.98702394314378</v>
       </c>
       <c r="D178" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E178" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F178" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G178" t="n">
         <v>0.4610109229269999</v>
@@ -32541,13 +32541,13 @@
         <v>82.98301852557415</v>
       </c>
       <c r="D179" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E179" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F179" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G179" t="n">
         <v>0.4557458956978972</v>
@@ -32720,13 +32720,13 @@
         <v>84.04463230684618</v>
       </c>
       <c r="D180" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E180" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F180" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G180" t="n">
         <v>0.4617172070796098</v>
@@ -32899,13 +32899,13 @@
         <v>86.20830532491085</v>
       </c>
       <c r="D181" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E181" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F181" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G181" t="n">
         <v>0.4693579173614679</v>
@@ -33078,13 +33078,13 @@
         <v>85.38614129512354</v>
       </c>
       <c r="D182" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E182" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F182" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G182" t="n">
         <v>0.4651202125120673</v>
@@ -33257,13 +33257,13 @@
         <v>89.5247179098439</v>
       </c>
       <c r="D183" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E183" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F183" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G183" t="n">
         <v>0.5085887911504605</v>
@@ -33436,13 +33436,13 @@
         <v>88.25197497315969</v>
       </c>
       <c r="D184" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E184" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F184" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G184" t="n">
         <v>0.4918305946493579</v>
@@ -33615,13 +33615,13 @@
         <v>90.16804202687049</v>
       </c>
       <c r="D185" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E185" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F185" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G185" t="n">
         <v>0.5218797745869391</v>
@@ -33794,13 +33794,13 @@
         <v>91.76247921068158</v>
       </c>
       <c r="D186" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E186" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F186" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G186" t="n">
         <v>0.5415915229628149</v>
@@ -33973,13 +33973,13 @@
         <v>90.74021843070119</v>
       </c>
       <c r="D187" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E187" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F187" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G187" t="n">
         <v>0.5457650201800489</v>
@@ -34152,13 +34152,13 @@
         <v>89.33258620631879</v>
       </c>
       <c r="D188" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E188" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F188" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G188" t="n">
         <v>0.5354917963167689</v>
@@ -34331,13 +34331,13 @@
         <v>91.32119336500209</v>
       </c>
       <c r="D189" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E189" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F189" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G189" t="n">
         <v>0.5451229437258646</v>
@@ -34510,13 +34510,13 @@
         <v>93.48969234018175</v>
       </c>
       <c r="D190" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E190" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F190" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G190" t="n">
         <v>0.5575150200469744</v>
@@ -34689,13 +34689,13 @@
         <v>92.60124676625479</v>
       </c>
       <c r="D191" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E191" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F191" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G191" t="n">
         <v>0.5496174791701908</v>
@@ -34868,13 +34868,13 @@
         <v>94.01285239169724</v>
       </c>
       <c r="D192" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E192" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F192" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G192" t="n">
         <v>0.5399863317610951</v>
@@ -35047,13 +35047,13 @@
         <v>96.02446507009363</v>
       </c>
       <c r="D193" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E193" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F193" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G193" t="n">
         <v>0.5534699381603326</v>
@@ -35226,13 +35226,13 @@
         <v>94.37843825126498</v>
       </c>
       <c r="D194" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E194" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F194" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G194" t="n">
         <v>0.5245764958667866</v>
@@ -35405,13 +35405,13 @@
         <v>96.42934443523542</v>
       </c>
       <c r="D195" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E195" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F195" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G195" t="n">
         <v>0.5808223968180665</v>
@@ -35584,13 +35584,13 @@
         <v>94.25917643696418</v>
       </c>
       <c r="D196" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E196" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F196" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G196" t="n">
         <v>0.5699070963680842</v>
@@ -35763,13 +35763,13 @@
         <v>102.6462926930563</v>
       </c>
       <c r="D197" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E197" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F197" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G197" t="n">
         <v>0.6318032704739845</v>
@@ -35942,13 +35942,13 @@
         <v>103.7185234370699</v>
       </c>
       <c r="D198" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E198" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F198" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G198" t="n">
         <v>0.6418838714407646</v>
@@ -36121,13 +36121,13 @@
         <v>103.2173363396083</v>
       </c>
       <c r="D199" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E199" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F199" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G199" t="n">
         <v>0.6405355107677113</v>
@@ -36300,13 +36300,13 @@
         <v>102.76282979231</v>
       </c>
       <c r="D200" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E200" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F200" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G200" t="n">
         <v>0.6082390631079669</v>
@@ -36479,13 +36479,13 @@
         <v>107.4667974851199</v>
       </c>
       <c r="D201" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E201" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F201" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G201" t="n">
         <v>0.6150450739728818</v>
@@ -36658,13 +36658,13 @@
         <v>104.9441913122775</v>
       </c>
       <c r="D202" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E202" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F202" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G202" t="n">
         <v>0.587499992352389</v>
@@ -36837,13 +36837,13 @@
         <v>107.1111540251463</v>
       </c>
       <c r="D203" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E203" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F203" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G203" t="n">
         <v>0.5963606479767082</v>
@@ -37016,13 +37016,13 @@
         <v>109.2389418773646</v>
       </c>
       <c r="D204" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E204" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F204" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G204" t="n">
         <v>0.6144672050846052</v>
@@ -37195,13 +37195,13 @@
         <v>109.1054269730665</v>
       </c>
       <c r="D205" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E205" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F205" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G205" t="n">
         <v>0.5919945277967152</v>
@@ -37374,13 +37374,13 @@
         <v>114.8591525793737</v>
       </c>
       <c r="D206" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E206" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F206" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G206" t="n">
         <v>0.7103934333825619</v>
@@ -37553,13 +37553,13 @@
         <v>112.3107318631037</v>
       </c>
       <c r="D207" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E207" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F207" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G207" t="n">
         <v>0.6356557293978674</v>
@@ -37732,13 +37732,13 @@
         <v>109.8640965121326</v>
       </c>
       <c r="D208" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E208" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F208" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G208" t="n">
         <v>0.6465710298478496</v>
@@ -37911,13 +37911,13 @@
         <v>115.0460558272065</v>
       </c>
       <c r="D209" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E209" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F209" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G209" t="n">
         <v>0.6581284066857572</v>
@@ -38090,13 +38090,13 @@
         <v>113.9196803672861</v>
       </c>
       <c r="D210" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E210" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F210" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G210" t="n">
         <v>0.6234562760395165</v>
@@ -38269,13 +38269,13 @@
         <v>117.2112530151812</v>
       </c>
       <c r="D211" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E211" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F211" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G211" t="n">
         <v>0.6246762213819774</v>
@@ -38448,13 +38448,13 @@
         <v>121.6295430076278</v>
       </c>
       <c r="D212" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E212" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F212" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G212" t="n">
         <v>0.6418196637423389</v>
@@ -38627,13 +38627,13 @@
         <v>119.9081891591959</v>
       </c>
       <c r="D213" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E213" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F213" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G213" t="n">
         <v>0.6414344178830801</v>
@@ -38806,13 +38806,13 @@
         <v>119.9985223700437</v>
       </c>
       <c r="D214" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E214" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F214" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G214" t="n">
         <v>0.6676953464626862</v>
@@ -38985,13 +38985,13 @@
         <v>114.8859060639742</v>
       </c>
       <c r="D215" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E215" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F215" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G215" t="n">
         <v>0.612926221515052</v>
@@ -39164,13 +39164,13 @@
         <v>114.0232608455683</v>
       </c>
       <c r="D216" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E216" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F216" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G216" t="n">
         <v>0.5710628340783785</v>
@@ -39343,13 +39343,13 @@
         <v>115.1425490250212</v>
       </c>
       <c r="D217" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E217" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F217" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G217" t="n">
         <v>0.5881420688065734</v>
@@ -39522,13 +39522,13 @@
         <v>113.5415512582873</v>
       </c>
       <c r="D218" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E218" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F218" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G218" t="n">
         <v>0.6354631064351084</v>
@@ -39701,13 +39701,13 @@
         <v>113.1354729796483</v>
       </c>
       <c r="D219" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E219" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F219" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G219" t="n">
         <v>0.6697499912883494</v>
@@ -39880,13 +39880,13 @@
         <v>114.5638675646039</v>
       </c>
       <c r="D220" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E220" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F220" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G220" t="n">
         <v>0.6866366030537854</v>
@@ -40059,13 +40059,13 @@
         <v>120.7695165925595</v>
       </c>
       <c r="D221" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E221" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F221" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G221" t="n">
         <v>0.7416625586626042</v>
@@ -40238,13 +40238,13 @@
         <v>125.6469202024913</v>
       </c>
       <c r="D222" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E222" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F222" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G222" t="n">
         <v>0.7311967117703063</v>
@@ -40417,13 +40417,13 @@
         <v>125.9581791459256</v>
       </c>
       <c r="D223" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E223" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F223" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G223" t="n">
         <v>0.7419193892575298</v>
@@ -40596,13 +40596,13 @@
         <v>128.9118406716537</v>
       </c>
       <c r="D224" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E224" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F224" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G224" t="n">
         <v>0.890303267082532</v>
@@ -40775,13 +40775,13 @@
         <v>132.3591806921776</v>
       </c>
       <c r="D225" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E225" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F225" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G225" t="n">
         <v>0.8666106444521813</v>
@@ -40954,13 +40954,13 @@
         <v>128.4736516796202</v>
       </c>
       <c r="D226" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E226" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F226" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G226" t="n">
         <v>0.8355341421348977</v>
@@ -41133,13 +41133,13 @@
         <v>138.824386677403</v>
       </c>
       <c r="D227" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E227" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F227" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G227" t="n">
         <v>0.8796447972937345</v>
@@ -41312,13 +41312,13 @@
         <v>144.1299698357381</v>
       </c>
       <c r="D228" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E228" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F228" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G228" t="n">
         <v>0.8989070921119257</v>
@@ -41491,13 +41491,13 @@
         <v>139.2612001131486</v>
       </c>
       <c r="D229" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E229" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F229" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G229" t="n">
         <v>0.8539617374698869</v>
@@ -41670,13 +41670,13 @@
         <v>127.8247334811711</v>
       </c>
       <c r="D230" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E230" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F230" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G230" t="n">
         <v>0.8025956179547101</v>
@@ -41843,178 +41843,178 @@
         <v>229</v>
       </c>
       <c r="B231" s="2" t="n">
-        <v>44074</v>
+        <v>44412</v>
       </c>
       <c r="C231" t="n">
-        <v>143.2973401036164</v>
+        <v>134.0432026886032</v>
       </c>
       <c r="D231" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E231" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F231" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G231" t="n">
-        <v>1.206981848692743</v>
+        <v>0.862308731904355</v>
       </c>
       <c r="H231" t="n">
-        <v>0.235125943585539</v>
+        <v>0.2298366766570411</v>
       </c>
       <c r="I231" t="n">
-        <v>-0.7221486820160313</v>
+        <v>-1.124883258053492</v>
       </c>
       <c r="J231" t="n">
-        <v>31.9280319324518</v>
+        <v>18.23365742358552</v>
       </c>
       <c r="K231" t="n">
-        <v>0.4017831691867527</v>
+        <v>0.4139673001515035</v>
       </c>
       <c r="L231" t="n">
-        <v>0.2629418988377515</v>
+        <v>0.3365706518823746</v>
       </c>
       <c r="M231" t="n">
-        <v>3.767782343264551</v>
+        <v>3.819181882614598</v>
       </c>
       <c r="N231" t="n">
-        <v>1.304851607611553</v>
+        <v>0.3913544726528976</v>
       </c>
       <c r="O231" t="n">
-        <v>1.629271619581224</v>
+        <v>2.293900611316011</v>
       </c>
       <c r="P231" t="n">
-        <v>3.23598679139306</v>
+        <v>3.17119713830868</v>
       </c>
       <c r="Q231" t="n">
-        <v>4.037775739262444</v>
+        <v>6.073323876042998</v>
       </c>
       <c r="R231" t="n">
-        <v>0.1835402063372051</v>
+        <v>0.092940151691411</v>
       </c>
       <c r="S231" t="n">
-        <v>2.199516939248717</v>
+        <v>2.200683770156959</v>
       </c>
       <c r="T231" t="n">
-        <v>0.1967564534014864</v>
+        <v>0.1495543677978507</v>
       </c>
       <c r="U231" t="n">
-        <v>1.288079434830152</v>
+        <v>2.12827261187691</v>
       </c>
       <c r="V231" t="n">
-        <v>14.69659782659006</v>
+        <v>8.154954929527724</v>
       </c>
       <c r="W231" t="n">
-        <v>1.83878989176288</v>
+        <v>1.844185865948872</v>
       </c>
       <c r="X231" t="n">
-        <v>2.491132105608227</v>
+        <v>2.104534681859178</v>
       </c>
       <c r="Y231" t="n">
-        <v>5.181825202049152</v>
+        <v>4.88868409271234</v>
       </c>
       <c r="Z231" t="n">
-        <v>1.348187553647838</v>
+        <v>2.570650812010825</v>
       </c>
       <c r="AA231" t="n">
-        <v>1.928120693327714</v>
+        <v>0.6938176472135674</v>
       </c>
       <c r="AB231" t="n">
-        <v>0.6961807719778441</v>
+        <v>0.3784149044395544</v>
       </c>
       <c r="AC231" t="n">
-        <v>6.110527824433347</v>
+        <v>7.901581709022765</v>
       </c>
       <c r="AD231" t="n">
-        <v>8.924061005499551</v>
+        <v>6.928911204273499</v>
       </c>
       <c r="AE231" t="n">
-        <v>2.603814806263498</v>
+        <v>2.583003754103979</v>
       </c>
       <c r="AF231" t="n">
-        <v>0.6091469761989361</v>
+        <v>0.7184086778559462</v>
       </c>
       <c r="AG231" t="n">
-        <v>1.443534659511791</v>
+        <v>2.509650647300663</v>
       </c>
       <c r="AH231" t="n">
-        <v>0.8298096502144918</v>
+        <v>0.6479894883536431</v>
       </c>
       <c r="AI231" t="n">
-        <v>1.221684045606036</v>
+        <v>0.3984323160915762</v>
       </c>
       <c r="AJ231" t="n">
-        <v>4.930873739444791</v>
+        <v>5.419023549595929</v>
       </c>
       <c r="AK231" t="n">
-        <v>0.2738022649066721</v>
+        <v>0.1234309724816283</v>
       </c>
       <c r="AL231" t="n">
-        <v>-0.07303115481132359</v>
+        <v>0.259705258694693</v>
       </c>
       <c r="AM231" t="n">
-        <v>0.8136045859986021</v>
+        <v>0.4418147765049202</v>
       </c>
       <c r="AN231" t="n">
-        <v>0.5310652979217738</v>
+        <v>0.5847589341557913</v>
       </c>
       <c r="AO231" t="n">
-        <v>1.320407869202402</v>
+        <v>3.07177227628841</v>
       </c>
       <c r="AP231" t="n">
-        <v>0.4458443709089838</v>
+        <v>0.7180545916080564</v>
       </c>
       <c r="AQ231" t="n">
-        <v>-0.1020061566411104</v>
+        <v>-0.03367431785862074</v>
       </c>
       <c r="AR231" t="n">
-        <v>1.050944397941273</v>
+        <v>1.719922676692239</v>
       </c>
       <c r="AS231" t="n">
-        <v>17.87083323182022</v>
+        <v>24.12489812465482</v>
       </c>
       <c r="AT231" t="n">
-        <v>-0.09514087427230886</v>
+        <v>0.2019515080130118</v>
       </c>
       <c r="AU231" t="n">
-        <v>-0.03864896969212945</v>
+        <v>0.3562159215821951</v>
       </c>
       <c r="AV231" t="n">
-        <v>1.308679401398346</v>
+        <v>0.583809569263081</v>
       </c>
       <c r="AW231" t="n">
-        <v>0.8149415141973765</v>
+        <v>4.130982195989594</v>
       </c>
       <c r="AX231" t="n">
-        <v>1.458010316252304</v>
+        <v>0.6433159026338894</v>
       </c>
       <c r="AY231" t="n">
-        <v>0.1292827812057848</v>
+        <v>0.1833372091826057</v>
       </c>
       <c r="AZ231" t="n">
-        <v>0.4452600357498625</v>
+        <v>0.459421712760491</v>
       </c>
       <c r="BA231" t="n">
-        <v>6.782612000423329</v>
+        <v>6.634171572041901</v>
       </c>
       <c r="BB231" t="n">
-        <v>2.306507119343967</v>
+        <v>1.047556002622829</v>
       </c>
       <c r="BC231" t="n">
-        <v>0.6166087425876481</v>
+        <v>0.8740408060736706</v>
       </c>
       <c r="BD231" t="n">
-        <v>0.523815942184347</v>
+        <v>0.3388502024460777</v>
       </c>
       <c r="BE231" t="n">
-        <v>0.6446823680866876</v>
+        <v>0.3478850633502472</v>
       </c>
       <c r="BF231" t="n">
-        <v>-0.007823345236570186</v>
+        <v>0.05229863757629187</v>
       </c>
       <c r="BG231" t="n">
-        <v>0.2665243663351573</v>
+        <v>0.1645724029496914</v>
       </c>
     </row>
     <row r="232">
@@ -42022,178 +42022,178 @@
         <v>230</v>
       </c>
       <c r="B232" s="2" t="n">
-        <v>44075</v>
+        <v>44413</v>
       </c>
       <c r="C232" t="n">
-        <v>142.5818406043498</v>
+        <v>134.2285273175934</v>
       </c>
       <c r="D232" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E232" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F232" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G232" t="n">
-        <v>1.194948652975246</v>
+        <v>0.9509152881475457</v>
       </c>
       <c r="H232" t="n">
-        <v>0.2332707323123813</v>
+        <v>0.221150407815641</v>
       </c>
       <c r="I232" t="n">
-        <v>-0.7271612435178625</v>
+        <v>-1.212026658962059</v>
       </c>
       <c r="J232" t="n">
-        <v>31.29145429094568</v>
+        <v>19.16030928748474</v>
       </c>
       <c r="K232" t="n">
-        <v>0.4044959703567926</v>
+        <v>0.4163127239022744</v>
       </c>
       <c r="L232" t="n">
-        <v>0.2662618723169952</v>
+        <v>0.3200179968602861</v>
       </c>
       <c r="M232" t="n">
-        <v>3.728016830342144</v>
+        <v>3.800066858502789</v>
       </c>
       <c r="N232" t="n">
-        <v>1.310676838011035</v>
+        <v>0.3983821121868831</v>
       </c>
       <c r="O232" t="n">
-        <v>1.59660728227444</v>
+        <v>2.261063588275125</v>
       </c>
       <c r="P232" t="n">
-        <v>3.257183211450032</v>
+        <v>3.133935571950022</v>
       </c>
       <c r="Q232" t="n">
-        <v>3.946399749633576</v>
+        <v>5.895678025484972</v>
       </c>
       <c r="R232" t="n">
-        <v>0.184194053007161</v>
+        <v>0.09660248974618883</v>
       </c>
       <c r="S232" t="n">
-        <v>2.174160062672873</v>
+        <v>2.272615826568586</v>
       </c>
       <c r="T232" t="n">
-        <v>0.1949470446074425</v>
+        <v>0.1451838291913468</v>
       </c>
       <c r="U232" t="n">
-        <v>1.278563737224433</v>
+        <v>2.162208621573276</v>
       </c>
       <c r="V232" t="n">
-        <v>14.57068129144706</v>
+        <v>7.97847334095395</v>
       </c>
       <c r="W232" t="n">
-        <v>1.906909765087696</v>
+        <v>1.814637781661702</v>
       </c>
       <c r="X232" t="n">
-        <v>2.491433987845363</v>
+        <v>2.05817781256748</v>
       </c>
       <c r="Y232" t="n">
-        <v>5.061707066060672</v>
+        <v>5.087004322621244</v>
       </c>
       <c r="Z232" t="n">
-        <v>1.358875337122865</v>
+        <v>2.826798697034289</v>
       </c>
       <c r="AA232" t="n">
-        <v>1.881990421390818</v>
+        <v>0.6762972575471924</v>
       </c>
       <c r="AB232" t="n">
-        <v>0.7002579653795615</v>
+        <v>0.3667984469088688</v>
       </c>
       <c r="AC232" t="n">
-        <v>6.091907437124765</v>
+        <v>7.934255817097026</v>
       </c>
       <c r="AD232" t="n">
-        <v>8.970321704426055</v>
+        <v>7.176563901195792</v>
       </c>
       <c r="AE232" t="n">
-        <v>2.636296649815101</v>
+        <v>2.594432974311498</v>
       </c>
       <c r="AF232" t="n">
-        <v>0.6159221195253323</v>
+        <v>0.6971907007315699</v>
       </c>
       <c r="AG232" t="n">
-        <v>1.475718019130712</v>
+        <v>2.500957942883118</v>
       </c>
       <c r="AH232" t="n">
-        <v>0.8340294143076711</v>
+        <v>0.6295411942471739</v>
       </c>
       <c r="AI232" t="n">
-        <v>1.209727137936541</v>
+        <v>0.3834231749392706</v>
       </c>
       <c r="AJ232" t="n">
-        <v>4.938287472377437</v>
+        <v>5.343935018595878</v>
       </c>
       <c r="AK232" t="n">
-        <v>0.2726208096075111</v>
+        <v>0.1219923830595318</v>
       </c>
       <c r="AL232" t="n">
-        <v>-0.07426478918094635</v>
+        <v>0.2543320464389446</v>
       </c>
       <c r="AM232" t="n">
-        <v>0.8105327240538479</v>
+        <v>0.4275992744955107</v>
       </c>
       <c r="AN232" t="n">
-        <v>0.5254420589810338</v>
+        <v>0.5743547265082917</v>
       </c>
       <c r="AO232" t="n">
-        <v>1.30299000788715</v>
+        <v>2.897117479668555</v>
       </c>
       <c r="AP232" t="n">
-        <v>0.4396672280426611</v>
+        <v>0.7013321574212577</v>
       </c>
       <c r="AQ232" t="n">
-        <v>-0.1113760403491208</v>
+        <v>-0.03251207982218832</v>
       </c>
       <c r="AR232" t="n">
-        <v>1.053663295085028</v>
+        <v>1.684476554542905</v>
       </c>
       <c r="AS232" t="n">
-        <v>18.02791814733021</v>
+        <v>23.21155500439037</v>
       </c>
       <c r="AT232" t="n">
-        <v>-0.09700333835416287</v>
+        <v>0.2095223236970302</v>
       </c>
       <c r="AU232" t="n">
-        <v>-0.03820145530201255</v>
+        <v>0.3443618143740619</v>
       </c>
       <c r="AV232" t="n">
-        <v>1.301243722933988</v>
+        <v>0.5745694178725209</v>
       </c>
       <c r="AW232" t="n">
-        <v>0.794194303511451</v>
+        <v>4.051110150331803</v>
       </c>
       <c r="AX232" t="n">
-        <v>1.469645005967799</v>
+        <v>0.6354812029626296</v>
       </c>
       <c r="AY232" t="n">
-        <v>0.12889160788389</v>
+        <v>0.1741419096642679</v>
       </c>
       <c r="AZ232" t="n">
-        <v>0.4420881031654993</v>
+        <v>0.4459390505995554</v>
       </c>
       <c r="BA232" t="n">
-        <v>6.940674466599719</v>
+        <v>7.045952622321618</v>
       </c>
       <c r="BB232" t="n">
-        <v>2.282245509561946</v>
+        <v>1.036328178313877</v>
       </c>
       <c r="BC232" t="n">
-        <v>0.607309538825222</v>
+        <v>0.881463657910484</v>
       </c>
       <c r="BD232" t="n">
-        <v>0.5248791680199431</v>
+        <v>0.3299002278067905</v>
       </c>
       <c r="BE232" t="n">
-        <v>0.6421313355482501</v>
+        <v>0.351733822485955</v>
       </c>
       <c r="BF232" t="n">
-        <v>-0.007823345236570186</v>
+        <v>0.05229863757629187</v>
       </c>
       <c r="BG232" t="n">
-        <v>0.2662876661773668</v>
+        <v>0.1645724029496914</v>
       </c>
     </row>
     <row r="233">
@@ -42201,178 +42201,178 @@
         <v>231</v>
       </c>
       <c r="B233" s="2" t="n">
-        <v>44076</v>
+        <v>44414</v>
       </c>
       <c r="C233" t="n">
-        <v>140.6842675178948</v>
+        <v>132.4824045772949</v>
       </c>
       <c r="D233" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E233" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F233" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G233" t="n">
-        <v>1.151629148365755</v>
+        <v>0.9938059979639212</v>
       </c>
       <c r="H233" t="n">
-        <v>0.2273075532038976</v>
+        <v>0.2276401489090682</v>
       </c>
       <c r="I233" t="n">
-        <v>-0.7126333112578714</v>
+        <v>-1.174386749456619</v>
       </c>
       <c r="J233" t="n">
-        <v>30.72643644746504</v>
+        <v>19.23444143645443</v>
       </c>
       <c r="K233" t="n">
-        <v>0.3973387928017936</v>
+        <v>0.4105143150699224</v>
       </c>
       <c r="L233" t="n">
-        <v>0.271441030930158</v>
+        <v>0.3246866944242474</v>
       </c>
       <c r="M233" t="n">
-        <v>3.676015775136764</v>
+        <v>3.774580159016719</v>
       </c>
       <c r="N233" t="n">
-        <v>1.297861331132173</v>
+        <v>0.3887135125829176</v>
       </c>
       <c r="O233" t="n">
-        <v>1.579549884043829</v>
+        <v>2.205662839393132</v>
       </c>
       <c r="P233" t="n">
-        <v>3.274639086873514</v>
+        <v>3.124025580780387</v>
       </c>
       <c r="Q233" t="n">
-        <v>3.84618092238876</v>
+        <v>5.709615789516443</v>
       </c>
       <c r="R233" t="n">
-        <v>0.1845754635482104</v>
+        <v>0.09661913673406193</v>
       </c>
       <c r="S233" t="n">
-        <v>2.202974695128433</v>
+        <v>2.334910577127153</v>
       </c>
       <c r="T233" t="n">
-        <v>0.1902559847477229</v>
+        <v>0.148256864146731</v>
       </c>
       <c r="U233" t="n">
-        <v>1.340523904712705</v>
+        <v>2.152997418965573</v>
       </c>
       <c r="V233" t="n">
-        <v>14.27845989950518</v>
+        <v>7.661475605659907</v>
       </c>
       <c r="W233" t="n">
-        <v>1.834546358491536</v>
+        <v>1.734344074447154</v>
       </c>
       <c r="X233" t="n">
-        <v>2.501999865566043</v>
+        <v>2.041717764878301</v>
       </c>
       <c r="Y233" t="n">
-        <v>5.031644568418272</v>
+        <v>4.918703385999744</v>
       </c>
       <c r="Z233" t="n">
-        <v>1.348442024631129</v>
+        <v>2.834803318447456</v>
       </c>
       <c r="AA233" t="n">
-        <v>1.882925494417792</v>
+        <v>0.6516767682929401</v>
       </c>
       <c r="AB233" t="n">
-        <v>0.7032026050534369</v>
+        <v>0.3714450299304</v>
       </c>
       <c r="AC233" t="n">
-        <v>6.054798282627242</v>
+        <v>7.666669820504195</v>
       </c>
       <c r="AD233" t="n">
-        <v>9.060716173915075</v>
+        <v>6.905889338010383</v>
       </c>
       <c r="AE233" t="n">
-        <v>2.681068920524361</v>
+        <v>2.514428433170947</v>
       </c>
       <c r="AF233" t="n">
-        <v>0.6095575909375414</v>
+        <v>0.7057979933859752</v>
       </c>
       <c r="AG233" t="n">
-        <v>1.593908633216224</v>
+        <v>2.427404289622902</v>
       </c>
       <c r="AH233" t="n">
-        <v>0.8221584296334944</v>
+        <v>0.6343038103685681</v>
       </c>
       <c r="AI233" t="n">
-        <v>1.203488751328003</v>
+        <v>0.3750560100314949</v>
       </c>
       <c r="AJ233" t="n">
-        <v>4.866374263464854</v>
+        <v>5.275036581569851</v>
       </c>
       <c r="AK233" t="n">
-        <v>0.2882750922885217</v>
+        <v>0.1277467407479179</v>
       </c>
       <c r="AL233" t="n">
-        <v>-0.07589318655641167</v>
+        <v>0.2567552598128915</v>
       </c>
       <c r="AM233" t="n">
-        <v>0.7927598083565732</v>
+        <v>0.4368998423105555</v>
       </c>
       <c r="AN233" t="n">
-        <v>0.5337115279882227</v>
+        <v>0.5881562264225678</v>
       </c>
       <c r="AO233" t="n">
-        <v>1.307679432113356</v>
+        <v>2.921949915227018</v>
       </c>
       <c r="AP233" t="n">
-        <v>0.4418473960931874</v>
+        <v>0.7039134727353835</v>
       </c>
       <c r="AQ233" t="n">
-        <v>-0.109733895786609</v>
+        <v>-0.03456128899564424</v>
       </c>
       <c r="AR233" t="n">
-        <v>1.044056524998091</v>
+        <v>1.660904010275854</v>
       </c>
       <c r="AS233" t="n">
-        <v>17.45678842540462</v>
+        <v>22.84877001228372</v>
       </c>
       <c r="AT233" t="n">
-        <v>-0.1003402531866644</v>
+        <v>0.2125506499533759</v>
       </c>
       <c r="AU233" t="n">
-        <v>-0.03978809721148141</v>
+        <v>0.3454286840202223</v>
       </c>
       <c r="AV233" t="n">
-        <v>1.260760584894682</v>
+        <v>0.5913696932307491</v>
       </c>
       <c r="AW233" t="n">
-        <v>0.794194303511451</v>
+        <v>3.975497947246002</v>
       </c>
       <c r="AX233" t="n">
-        <v>1.457397964144564</v>
+        <v>0.6546326912689727</v>
       </c>
       <c r="AY233" t="n">
-        <v>0.1293805745487994</v>
+        <v>0.1727199561144727</v>
       </c>
       <c r="AZ233" t="n">
-        <v>0.4444670526437777</v>
+        <v>0.4489726495857659</v>
       </c>
       <c r="BA233" t="n">
-        <v>6.801016534141168</v>
+        <v>6.928756124090381</v>
       </c>
       <c r="BB233" t="n">
-        <v>2.089806832899173</v>
+        <v>1.088537560982159</v>
       </c>
       <c r="BC233" t="n">
-        <v>0.610886155678678</v>
+        <v>0.9696100237156722</v>
       </c>
       <c r="BD233" t="n">
-        <v>0.5309041146060396</v>
+        <v>0.3428048424171225</v>
       </c>
       <c r="BE233" t="n">
-        <v>0.6421313355482501</v>
+        <v>0.3473505134260559</v>
       </c>
       <c r="BF233" t="n">
-        <v>-0.007823345236570186</v>
+        <v>0.05229863757629187</v>
       </c>
       <c r="BG233" t="n">
-        <v>0.2643940650622757</v>
+        <v>0.1705044668991461</v>
       </c>
     </row>
     <row r="234">
@@ -42380,178 +42380,178 @@
         <v>232</v>
       </c>
       <c r="B234" s="2" t="n">
-        <v>44077</v>
+        <v>44417</v>
       </c>
       <c r="C234" t="n">
-        <v>142.4446071104461</v>
+        <v>128.7700827506901</v>
       </c>
       <c r="D234" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E234" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F234" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G234" t="n">
-        <v>1.185845278798974</v>
+        <v>0.787677628398457</v>
       </c>
       <c r="H234" t="n">
-        <v>0.2335799342020351</v>
+        <v>0.212514060065678</v>
       </c>
       <c r="I234" t="n">
-        <v>-0.7225309960568214</v>
+        <v>-1.136099735332877</v>
       </c>
       <c r="J234" t="n">
-        <v>31.16217054661621</v>
+        <v>18.25646731571297</v>
       </c>
       <c r="K234" t="n">
-        <v>0.3907588069345391</v>
+        <v>0.424456556535959</v>
       </c>
       <c r="L234" t="n">
-        <v>0.2693162479070564</v>
+        <v>0.3208668509628245</v>
       </c>
       <c r="M234" t="n">
-        <v>3.676780496454038</v>
+        <v>3.589376811107159</v>
       </c>
       <c r="N234" t="n">
-        <v>1.267861394600143</v>
+        <v>0.389877325512268</v>
       </c>
       <c r="O234" t="n">
-        <v>1.568120266837849</v>
+        <v>2.268287733349939</v>
       </c>
       <c r="P234" t="n">
-        <v>3.291263730000487</v>
+        <v>3.058421440069023</v>
       </c>
       <c r="Q234" t="n">
-        <v>3.920551454849096</v>
+        <v>5.605913896999837</v>
       </c>
       <c r="R234" t="n">
-        <v>0.1817693716416617</v>
+        <v>0.09495443761825383</v>
       </c>
       <c r="S234" t="n">
-        <v>2.203358890168037</v>
+        <v>2.284140852169521</v>
       </c>
       <c r="T234" t="n">
-        <v>0.1903229998827584</v>
+        <v>0.1491446297988634</v>
       </c>
       <c r="U234" t="n">
-        <v>1.346146817025584</v>
+        <v>2.247291046069242</v>
       </c>
       <c r="V234" t="n">
-        <v>14.11928239283821</v>
+        <v>7.63220140847783</v>
       </c>
       <c r="W234" t="n">
-        <v>1.83588642161808</v>
+        <v>1.732898787752193</v>
       </c>
       <c r="X234" t="n">
-        <v>2.508641274493491</v>
+        <v>2.048772071030806</v>
       </c>
       <c r="Y234" t="n">
-        <v>5.18960453242931</v>
+        <v>4.906768004269712</v>
       </c>
       <c r="Z234" t="n">
-        <v>1.41180531282826</v>
+        <v>2.550138969651952</v>
       </c>
       <c r="AA234" t="n">
-        <v>1.83586014935619</v>
+        <v>0.6573977118654488</v>
       </c>
       <c r="AB234" t="n">
-        <v>0.7026363281895159</v>
+        <v>0.3678544885025675</v>
       </c>
       <c r="AC234" t="n">
-        <v>6.194869252753886</v>
+        <v>7.324979800454273</v>
       </c>
       <c r="AD234" t="n">
-        <v>9.896599144164323</v>
+        <v>6.51004734578991</v>
       </c>
       <c r="AE234" t="n">
-        <v>2.652976515414247</v>
+        <v>2.420510058910678</v>
       </c>
       <c r="AF234" t="n">
-        <v>0.6346050904571597</v>
+        <v>0.6847801858430832</v>
       </c>
       <c r="AG234" t="n">
-        <v>1.530559203922636</v>
+        <v>2.401861111888062</v>
       </c>
       <c r="AH234" t="n">
-        <v>0.8209991538112347</v>
+        <v>0.6315666747330323</v>
       </c>
       <c r="AI234" t="n">
-        <v>1.172296818247741</v>
+        <v>0.3809216513888366</v>
       </c>
       <c r="AJ234" t="n">
-        <v>5.003528321691721</v>
+        <v>5.106558372221871</v>
       </c>
       <c r="AK234" t="n">
-        <v>0.2909333667116341</v>
+        <v>0.1214169472906932</v>
       </c>
       <c r="AL234" t="n">
-        <v>-0.07352460857537968</v>
+        <v>0.2456927639858775</v>
       </c>
       <c r="AM234" t="n">
-        <v>0.7788267200695307</v>
+        <v>0.4254064577265919</v>
       </c>
       <c r="AN234" t="n">
-        <v>0.5181649262982995</v>
+        <v>0.5752040495997539</v>
       </c>
       <c r="AO234" t="n">
-        <v>1.32777696441501</v>
+        <v>2.847452608551627</v>
       </c>
       <c r="AP234" t="n">
-        <v>0.424648292432818</v>
+        <v>0.7068314814508381</v>
       </c>
       <c r="AQ234" t="n">
-        <v>-0.1007503990294299</v>
+        <v>-0.03339905095921182</v>
       </c>
       <c r="AR234" t="n">
-        <v>1.017411332483874</v>
+        <v>1.612536641575048</v>
       </c>
       <c r="AS234" t="n">
-        <v>17.93773976992103</v>
+        <v>22.23379779826618</v>
       </c>
       <c r="AT234" t="n">
-        <v>-0.1006506638861531</v>
+        <v>0.2036549415663701</v>
       </c>
       <c r="AU234" t="n">
-        <v>-0.04098824943314638</v>
+        <v>0.3339302000196832</v>
       </c>
       <c r="AV234" t="n">
-        <v>1.216146514390861</v>
+        <v>0.5804495142761334</v>
       </c>
       <c r="AW234" t="n">
-        <v>0.7852707720319857</v>
+        <v>3.994667238283563</v>
       </c>
       <c r="AX234" t="n">
-        <v>1.465970893431881</v>
+        <v>0.638673117606673</v>
       </c>
       <c r="AY234" t="n">
-        <v>0.1274247079644067</v>
+        <v>0.1715823932947019</v>
       </c>
       <c r="AZ234" t="n">
-        <v>0.4397091537405622</v>
+        <v>0.4435795847213917</v>
       </c>
       <c r="BA234" t="n">
-        <v>6.674350037183621</v>
+        <v>6.834928111616325</v>
       </c>
       <c r="BB234" t="n">
-        <v>2.084844231065734</v>
+        <v>1.054012001416304</v>
       </c>
       <c r="BC234" t="n">
-        <v>0.5937183948457188</v>
+        <v>0.9705378801996927</v>
       </c>
       <c r="BD234" t="n">
-        <v>0.5170821783560813</v>
+        <v>0.339266480358146</v>
       </c>
       <c r="BE234" t="n">
-        <v>0.630833905628121</v>
+        <v>0.3412566447398792</v>
       </c>
       <c r="BF234" t="n">
-        <v>-0.007823345236570186</v>
+        <v>0.05229863757629187</v>
       </c>
       <c r="BG234" t="n">
-        <v>0.2620270635579873</v>
+        <v>0.1657588157101358</v>
       </c>
     </row>
     <row r="235">
@@ -42559,178 +42559,178 @@
         <v>233</v>
       </c>
       <c r="B235" s="2" t="n">
-        <v>44078</v>
+        <v>44418</v>
       </c>
       <c r="C235" t="n">
-        <v>145.5209766916334</v>
+        <v>126.610419512723</v>
       </c>
       <c r="D235" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E235" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F235" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G235" t="n">
-        <v>1.20018047721753</v>
+        <v>0.8168027531430589</v>
       </c>
       <c r="H235" t="n">
-        <v>0.2428559905840146</v>
+        <v>0.2197526174335113</v>
       </c>
       <c r="I235" t="n">
-        <v>-0.7413918203968686</v>
+        <v>-1.126393168351741</v>
       </c>
       <c r="J235" t="n">
-        <v>31.7371991387912</v>
+        <v>17.77460834741</v>
       </c>
       <c r="K235" t="n">
-        <v>0.3980314228877612</v>
+        <v>0.4485623011073959</v>
       </c>
       <c r="L235" t="n">
-        <v>0.2953448399174617</v>
+        <v>0.3280821108344011</v>
       </c>
       <c r="M235" t="n">
-        <v>3.823607005458496</v>
+        <v>3.567288338380109</v>
       </c>
       <c r="N235" t="n">
-        <v>1.352035973746142</v>
+        <v>0.3773887177537412</v>
       </c>
       <c r="O235" t="n">
-        <v>1.614070809010107</v>
+        <v>2.275230418145798</v>
       </c>
       <c r="P235" t="n">
-        <v>3.374802561783609</v>
+        <v>2.972997317018388</v>
       </c>
       <c r="Q235" t="n">
-        <v>4.215312711577841</v>
+        <v>5.406024741943178</v>
       </c>
       <c r="R235" t="n">
-        <v>0.183213283013177</v>
+        <v>0.09565361124032327</v>
       </c>
       <c r="S235" t="n">
-        <v>2.243507277973888</v>
+        <v>2.155974619118847</v>
       </c>
       <c r="T235" t="n">
-        <v>0.1948800294538965</v>
+        <v>0.1480519951472374</v>
       </c>
       <c r="U235" t="n">
-        <v>1.332413935132338</v>
+        <v>2.11372860767601</v>
       </c>
       <c r="V235" t="n">
-        <v>14.6815511966638</v>
+        <v>7.55065185927286</v>
       </c>
       <c r="W235" t="n">
-        <v>1.873854875602404</v>
+        <v>1.838725893691833</v>
       </c>
       <c r="X235" t="n">
-        <v>2.52645232561589</v>
+        <v>2.196576581761384</v>
       </c>
       <c r="Y235" t="n">
-        <v>5.342685933640936</v>
+        <v>4.988145606277887</v>
       </c>
       <c r="Z235" t="n">
-        <v>1.477713311353031</v>
+        <v>2.434739010994928</v>
       </c>
       <c r="AA235" t="n">
-        <v>1.82775618260118</v>
+        <v>0.6383449265504291</v>
       </c>
       <c r="AB235" t="n">
-        <v>0.7310634265546977</v>
+        <v>0.3734794878304509</v>
       </c>
       <c r="AC235" t="n">
-        <v>6.349311976653143</v>
+        <v>7.089854355659885</v>
       </c>
       <c r="AD235" t="n">
-        <v>9.94870889715388</v>
+        <v>6.213668756892878</v>
       </c>
       <c r="AE235" t="n">
-        <v>2.734620068012574</v>
+        <v>2.338517827398757</v>
       </c>
       <c r="AF235" t="n">
-        <v>0.6654011964101912</v>
+        <v>0.6827784898423599</v>
       </c>
       <c r="AG235" t="n">
-        <v>1.543506532534393</v>
+        <v>2.220785391076568</v>
       </c>
       <c r="AH235" t="n">
-        <v>0.829670537085004</v>
+        <v>0.6354534072969723</v>
       </c>
       <c r="AI235" t="n">
-        <v>1.178535204856278</v>
+        <v>0.4190483203054941</v>
       </c>
       <c r="AJ235" t="n">
-        <v>5.042821105947162</v>
+        <v>4.922201226693787</v>
       </c>
       <c r="AK235" t="n">
-        <v>0.300089645247259</v>
+        <v>0.1241502671926765</v>
       </c>
       <c r="AL235" t="n">
-        <v>-0.07697878481572575</v>
+        <v>0.2530677612038869</v>
       </c>
       <c r="AM235" t="n">
-        <v>0.7915530054112427</v>
+        <v>0.429640862564595</v>
       </c>
       <c r="AN235" t="n">
-        <v>0.5720818640508036</v>
+        <v>0.5695772842798092</v>
       </c>
       <c r="AO235" t="n">
-        <v>1.4312792554457</v>
+        <v>2.968303794923302</v>
       </c>
       <c r="AP235" t="n">
-        <v>0.4305831943858051</v>
+        <v>0.6974161179700138</v>
       </c>
       <c r="AQ235" t="n">
-        <v>-0.1209391175325468</v>
+        <v>-0.03321553968577955</v>
       </c>
       <c r="AR235" t="n">
-        <v>1.032999676413426</v>
+        <v>1.587392594304212</v>
       </c>
       <c r="AS235" t="n">
-        <v>18.13748972356807</v>
+        <v>21.6103180632996</v>
       </c>
       <c r="AT235" t="n">
-        <v>-0.1039875787186546</v>
+        <v>0.2163360577953851</v>
       </c>
       <c r="AU235" t="n">
-        <v>-0.04766028210326862</v>
+        <v>0.3374864321891365</v>
       </c>
       <c r="AV235" t="n">
-        <v>1.231017871178414</v>
+        <v>0.5770894591480225</v>
       </c>
       <c r="AW235" t="n">
-        <v>0.7707700332437578</v>
+        <v>3.917990074439825</v>
       </c>
       <c r="AX235" t="n">
-        <v>1.482504399677733</v>
+        <v>0.6357713769508476</v>
       </c>
       <c r="AY235" t="n">
-        <v>0.1289894012269045</v>
+        <v>0.1723407685246035</v>
       </c>
       <c r="AZ235" t="n">
-        <v>0.4587407492467413</v>
+        <v>0.4587475796524442</v>
       </c>
       <c r="BA235" t="n">
-        <v>6.734976736553977</v>
+        <v>7.081005351505898</v>
       </c>
       <c r="BB235" t="n">
-        <v>2.106900239623622</v>
+        <v>1.039696525606562</v>
       </c>
       <c r="BC235" t="n">
-        <v>0.610170832279707</v>
+        <v>0.9399186162977192</v>
       </c>
       <c r="BD235" t="n">
-        <v>0.5316129318482089</v>
+        <v>0.3496734276066991</v>
       </c>
       <c r="BE235" t="n">
-        <v>0.6424957687412647</v>
+        <v>0.3436086642377195</v>
       </c>
       <c r="BF235" t="n">
-        <v>-0.007823345236570186</v>
+        <v>0.05229863757629187</v>
       </c>
       <c r="BG235" t="n">
-        <v>0.2643940650622757</v>
+        <v>0.1650808655928603</v>
       </c>
     </row>
     <row r="236">
@@ -42738,178 +42738,178 @@
         <v>234</v>
       </c>
       <c r="B236" s="2" t="n">
-        <v>44081</v>
+        <v>44419</v>
       </c>
       <c r="C236" t="n">
-        <v>135.6471265881693</v>
+        <v>127.626101123996</v>
       </c>
       <c r="D236" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E236" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F236" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G236" t="n">
-        <v>1.109251372149029</v>
+        <v>0.8000206180563352</v>
       </c>
       <c r="H236" t="n">
-        <v>0.2357001756570724</v>
+        <v>0.2329317839375395</v>
       </c>
       <c r="I236" t="n">
-        <v>-0.6946220735158725</v>
+        <v>-1.117872959646375</v>
       </c>
       <c r="J236" t="n">
-        <v>28.15551160817011</v>
+        <v>17.53795571814354</v>
       </c>
       <c r="K236" t="n">
-        <v>0.3884500399813136</v>
+        <v>0.5189901656919502</v>
       </c>
       <c r="L236" t="n">
-        <v>0.2997272049082561</v>
+        <v>0.3454836199590279</v>
       </c>
       <c r="M236" t="n">
-        <v>3.864901961417647</v>
+        <v>3.602969717338852</v>
       </c>
       <c r="N236" t="n">
-        <v>1.399802862971291</v>
+        <v>0.3845058813047126</v>
       </c>
       <c r="O236" t="n">
-        <v>1.582798912229742</v>
+        <v>2.328567125660967</v>
       </c>
       <c r="P236" t="n">
-        <v>3.230999398548409</v>
+        <v>2.948816938966271</v>
       </c>
       <c r="Q236" t="n">
-        <v>4.121669327831665</v>
+        <v>5.346208287991347</v>
       </c>
       <c r="R236" t="n">
-        <v>0.1734873139317194</v>
+        <v>0.09272374080526095</v>
       </c>
       <c r="S236" t="n">
-        <v>2.160905331825545</v>
+        <v>2.234464017682731</v>
       </c>
       <c r="T236" t="n">
-        <v>0.1918643481181496</v>
+        <v>0.1446375118655338</v>
       </c>
       <c r="U236" t="n">
-        <v>1.371990586684531</v>
+        <v>2.075671796710087</v>
       </c>
       <c r="V236" t="n">
-        <v>13.0668102239679</v>
+        <v>7.62383735202281</v>
       </c>
       <c r="W236" t="n">
-        <v>1.909589891117061</v>
+        <v>1.853821110805669</v>
       </c>
       <c r="X236" t="n">
-        <v>2.406001318789467</v>
+        <v>2.160633212317667</v>
       </c>
       <c r="Y236" t="n">
-        <v>5.046412110886792</v>
+        <v>5.123774942958177</v>
       </c>
       <c r="Z236" t="n">
-        <v>1.422493096402234</v>
+        <v>2.505946788970528</v>
       </c>
       <c r="AA236" t="n">
-        <v>1.776638854259805</v>
+        <v>0.6346160973309316</v>
       </c>
       <c r="AB236" t="n">
-        <v>0.7191716125049261</v>
+        <v>0.3727025827093786</v>
       </c>
       <c r="AC236" t="n">
-        <v>5.748915888087029</v>
+        <v>7.132779164366015</v>
       </c>
       <c r="AD236" t="n">
-        <v>9.677525490386147</v>
+        <v>6.204504713172557</v>
       </c>
       <c r="AE236" t="n">
-        <v>2.616105233525179</v>
+        <v>2.383240862731068</v>
       </c>
       <c r="AF236" t="n">
-        <v>0.6561623646521639</v>
+        <v>0.7005935838956232</v>
       </c>
       <c r="AG236" t="n">
-        <v>1.405709963723199</v>
+        <v>2.664915722515992</v>
       </c>
       <c r="AH236" t="n">
-        <v>0.8069487306220261</v>
+        <v>0.6240121803019125</v>
       </c>
       <c r="AI236" t="n">
-        <v>1.158260448350351</v>
+        <v>0.3992086509787644</v>
       </c>
       <c r="AJ236" t="n">
-        <v>4.584405289633689</v>
+        <v>5.006171196588162</v>
       </c>
       <c r="AK236" t="n">
-        <v>0.2974313708405832</v>
+        <v>0.1291853301700144</v>
       </c>
       <c r="AL236" t="n">
-        <v>-0.07752158393187697</v>
+        <v>0.2593891873791756</v>
       </c>
       <c r="AM236" t="n">
-        <v>0.760285838906778</v>
+        <v>0.4279773463693607</v>
       </c>
       <c r="AN236" t="n">
-        <v>0.6106175895173056</v>
+        <v>0.5752040495997539</v>
       </c>
       <c r="AO236" t="n">
-        <v>1.429604461127382</v>
+        <v>2.799443233241389</v>
       </c>
       <c r="AP236" t="n">
-        <v>0.4211357994436929</v>
+        <v>0.7241103984203594</v>
       </c>
       <c r="AQ236" t="n">
-        <v>-0.1336898871140281</v>
+        <v>-0.03428602209623532</v>
       </c>
       <c r="AR236" t="n">
-        <v>1.042243926796959</v>
+        <v>1.658808672937474</v>
       </c>
       <c r="AS236" t="n">
-        <v>16.49682505554073</v>
+        <v>22.05878594292465</v>
       </c>
       <c r="AT236" t="n">
-        <v>-0.1029787439884707</v>
+        <v>0.2116042980144508</v>
       </c>
       <c r="AU236" t="n">
-        <v>-0.0493282902591102</v>
+        <v>0.3470882590279583</v>
       </c>
       <c r="AV236" t="n">
-        <v>1.2268869387139</v>
+        <v>0.5657492733376839</v>
       </c>
       <c r="AW236" t="n">
-        <v>0.7560462063103028</v>
+        <v>3.865807004657066</v>
       </c>
       <c r="AX236" t="n">
-        <v>1.463521485111442</v>
+        <v>0.62938754755224</v>
       </c>
       <c r="AY236" t="n">
-        <v>0.1289894012269045</v>
+        <v>0.1777441919435965</v>
       </c>
       <c r="AZ236" t="n">
-        <v>0.4607232070919653</v>
+        <v>0.451669182017953</v>
       </c>
       <c r="BA236" t="n">
-        <v>6.263495886310457</v>
+        <v>7.045952622321618</v>
       </c>
       <c r="BB236" t="n">
-        <v>2.001582797685368</v>
+        <v>1.038293047383771</v>
       </c>
       <c r="BC236" t="n">
-        <v>0.6280539164762876</v>
+        <v>0.9250729125887428</v>
       </c>
       <c r="BD236" t="n">
-        <v>0.5358658353012244</v>
+        <v>0.3478001770853649</v>
       </c>
       <c r="BE236" t="n">
-        <v>0.6381225700504189</v>
+        <v>0.3387977152946678</v>
       </c>
       <c r="BF236" t="n">
-        <v>-0.007823345236570186</v>
+        <v>0.05229863757629187</v>
       </c>
       <c r="BG236" t="n">
-        <v>0.2634472644311138</v>
+        <v>0.1633859901156306</v>
       </c>
     </row>
     <row r="237">
@@ -42917,178 +42917,178 @@
         <v>235</v>
       </c>
       <c r="B237" s="2" t="n">
-        <v>44082</v>
+        <v>44420</v>
       </c>
       <c r="C237" t="n">
-        <v>132.9185367983207</v>
+        <v>129.7961283403477</v>
       </c>
       <c r="D237" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E237" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F237" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G237" t="n">
-        <v>1.096485721029662</v>
+        <v>0.800886792756382</v>
       </c>
       <c r="H237" t="n">
-        <v>0.2317247229126862</v>
+        <v>0.2795081565164748</v>
       </c>
       <c r="I237" t="n">
-        <v>-0.6833225706151379</v>
+        <v>-0.9522141458271013</v>
       </c>
       <c r="J237" t="n">
-        <v>27.55696756798265</v>
+        <v>17.70332743562304</v>
       </c>
       <c r="K237" t="n">
-        <v>0.3737893698283317</v>
+        <v>0.610852597716992</v>
       </c>
       <c r="L237" t="n">
-        <v>0.3262869926518475</v>
+        <v>0.3633095561123346</v>
       </c>
       <c r="M237" t="n">
-        <v>3.905432195657327</v>
+        <v>3.698544839506678</v>
       </c>
       <c r="N237" t="n">
-        <v>1.365434003664953</v>
+        <v>0.4614070575454113</v>
       </c>
       <c r="O237" t="n">
-        <v>1.676092437100678</v>
+        <v>2.358120446368671</v>
       </c>
       <c r="P237" t="n">
-        <v>3.059765573966822</v>
+        <v>2.936330350064499</v>
       </c>
       <c r="Q237" t="n">
-        <v>3.890848589678577</v>
+        <v>5.273767255816367</v>
       </c>
       <c r="R237" t="n">
-        <v>0.1705722475692281</v>
+        <v>0.09979871205292035</v>
       </c>
       <c r="S237" t="n">
-        <v>2.088100360644815</v>
+        <v>2.288413059972763</v>
       </c>
       <c r="T237" t="n">
-        <v>0.197560635095955</v>
+        <v>0.1495543677978507</v>
       </c>
       <c r="U237" t="n">
-        <v>1.369070997635599</v>
+        <v>2.320156506994157</v>
       </c>
       <c r="V237" t="n">
-        <v>12.81022558679046</v>
+        <v>7.778154191647567</v>
       </c>
       <c r="W237" t="n">
-        <v>1.868271279428239</v>
+        <v>1.872128076055956</v>
       </c>
       <c r="X237" t="n">
-        <v>2.347738049628111</v>
+        <v>2.163320567042431</v>
       </c>
       <c r="Y237" t="n">
-        <v>4.865377861832545</v>
+        <v>5.075551178975461</v>
       </c>
       <c r="Z237" t="n">
-        <v>1.367781823418019</v>
+        <v>2.522289557713815</v>
       </c>
       <c r="AA237" t="n">
-        <v>1.777885618360925</v>
+        <v>0.6372211698261234</v>
       </c>
       <c r="AB237" t="n">
-        <v>0.6880263852206943</v>
+        <v>0.3810366559988522</v>
       </c>
       <c r="AC237" t="n">
-        <v>5.87740365413383</v>
+        <v>7.541098738219372</v>
       </c>
       <c r="AD237" t="n">
-        <v>9.414318066045457</v>
+        <v>6.170083670740197</v>
       </c>
       <c r="AE237" t="n">
-        <v>2.528316467296011</v>
+        <v>2.538280718771668</v>
       </c>
       <c r="AF237" t="n">
-        <v>0.6442545369537923</v>
+        <v>0.7007937534771075</v>
       </c>
       <c r="AG237" t="n">
-        <v>1.325991411856867</v>
+        <v>2.581064557875142</v>
       </c>
       <c r="AH237" t="n">
-        <v>0.7725877945722819</v>
+        <v>0.6132278659749433</v>
       </c>
       <c r="AI237" t="n">
-        <v>1.149422733966337</v>
+        <v>0.3875636276709411</v>
       </c>
       <c r="AJ237" t="n">
-        <v>4.591077649231988</v>
+        <v>5.06699559803162</v>
       </c>
       <c r="AK237" t="n">
-        <v>0.3219465682324286</v>
+        <v>0.1307677785343206</v>
       </c>
       <c r="AL237" t="n">
-        <v>-0.07796569231682629</v>
+        <v>0.2616016865337737</v>
       </c>
       <c r="AM237" t="n">
-        <v>0.7297866378677913</v>
+        <v>0.430170163221122</v>
       </c>
       <c r="AN237" t="n">
-        <v>0.6079713594508568</v>
+        <v>0.5826356264766719</v>
       </c>
       <c r="AO237" t="n">
-        <v>1.307009514366755</v>
+        <v>2.862352069944526</v>
       </c>
       <c r="AP237" t="n">
-        <v>0.4198034745050941</v>
+        <v>0.7288211537789944</v>
       </c>
       <c r="AQ237" t="n">
-        <v>-0.1428665773466229</v>
+        <v>-0.03609054956820171</v>
       </c>
       <c r="AR237" t="n">
-        <v>0.9826094482225046</v>
+        <v>1.693730960910157</v>
       </c>
       <c r="AS237" t="n">
-        <v>16.20204842477734</v>
+        <v>22.54310694542732</v>
       </c>
       <c r="AT237" t="n">
-        <v>-0.1070916855409244</v>
+        <v>0.2110364868395879</v>
       </c>
       <c r="AU237" t="n">
-        <v>-0.05001990341172322</v>
+        <v>0.3556232162206196</v>
       </c>
       <c r="AV237" t="n">
-        <v>1.196318038674125</v>
+        <v>0.567429300760576</v>
       </c>
       <c r="AW237" t="n">
-        <v>0.7125439902521261</v>
+        <v>3.961653459385113</v>
       </c>
       <c r="AX237" t="n">
-        <v>1.408409797293707</v>
+        <v>0.6299678956391969</v>
       </c>
       <c r="AY237" t="n">
-        <v>0.1294783678667323</v>
+        <v>0.1796401299932689</v>
       </c>
       <c r="AZ237" t="n">
-        <v>0.4634986480966153</v>
+        <v>0.4718931752593564</v>
       </c>
       <c r="BA237" t="n">
-        <v>6.131957600902904</v>
+        <v>6.890162715262543</v>
       </c>
       <c r="BB237" t="n">
-        <v>1.950302577266457</v>
+        <v>1.039696525606562</v>
       </c>
       <c r="BC237" t="n">
-        <v>0.6337765034206074</v>
+        <v>0.9612593153594888</v>
       </c>
       <c r="BD237" t="n">
-        <v>0.5489789542536981</v>
+        <v>0.3536280675224284</v>
       </c>
       <c r="BE237" t="n">
-        <v>0.6414024690685532</v>
+        <v>0.3406151849619842</v>
       </c>
       <c r="BF237" t="n">
-        <v>-0.007823345236570186</v>
+        <v>0.05229863757629187</v>
       </c>
       <c r="BG237" t="n">
-        <v>0.2629738641155328</v>
+        <v>0.1635554776633536</v>
       </c>
     </row>
     <row r="238">
@@ -43096,178 +43096,178 @@
         <v>236</v>
       </c>
       <c r="B238" s="2" t="n">
-        <v>44083</v>
+        <v>44421</v>
       </c>
       <c r="C238" t="n">
-        <v>125.9848800918663</v>
+        <v>124.1466488752638</v>
       </c>
       <c r="D238" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E238" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F238" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G238" t="n">
-        <v>1.109146735653582</v>
+        <v>0.7741436485859913</v>
       </c>
       <c r="H238" t="n">
-        <v>0.2201517382769554</v>
+        <v>0.2770620233436999</v>
       </c>
       <c r="I238" t="n">
-        <v>-0.6825579425335578</v>
+        <v>-0.9160180654007493</v>
       </c>
       <c r="J238" t="n">
-        <v>25.90977437309947</v>
+        <v>16.64551869332456</v>
       </c>
       <c r="K238" t="n">
-        <v>0.3431404885242632</v>
+        <v>0.5879195650715022</v>
       </c>
       <c r="L238" t="n">
-        <v>0.2987976123187072</v>
+        <v>0.3599141397021809</v>
       </c>
       <c r="M238" t="n">
-        <v>3.657662461511207</v>
+        <v>3.532031737967343</v>
       </c>
       <c r="N238" t="n">
-        <v>1.345628220357321</v>
+        <v>0.4386231817097509</v>
       </c>
       <c r="O238" t="n">
-        <v>1.523330091989141</v>
+        <v>2.223535561942685</v>
       </c>
       <c r="P238" t="n">
-        <v>2.835332891285481</v>
+        <v>2.852888225574832</v>
       </c>
       <c r="Q238" t="n">
-        <v>3.590872326007492</v>
+        <v>5.235142058213702</v>
       </c>
       <c r="R238" t="n">
-        <v>0.1637885884697224</v>
+        <v>0.09878324559556238</v>
       </c>
       <c r="S238" t="n">
-        <v>2.060054118417971</v>
+        <v>2.227310553516633</v>
       </c>
       <c r="T238" t="n">
-        <v>0.1804047590460139</v>
+        <v>0.1410864492570045</v>
       </c>
       <c r="U238" t="n">
-        <v>1.373071916032404</v>
+        <v>2.196144631375377</v>
       </c>
       <c r="V238" t="n">
-        <v>12.29309667315416</v>
+        <v>7.232817718497512</v>
       </c>
       <c r="W238" t="n">
-        <v>1.779157084533306</v>
+        <v>1.88690211819954</v>
       </c>
       <c r="X238" t="n">
-        <v>2.209475991389767</v>
+        <v>2.015180136971258</v>
       </c>
       <c r="Y238" t="n">
-        <v>4.453996318937965</v>
+        <v>4.980188685294809</v>
       </c>
       <c r="Z238" t="n">
-        <v>1.289404744040455</v>
+        <v>2.473261251582901</v>
       </c>
       <c r="AA238" t="n">
-        <v>1.604273716253811</v>
+        <v>0.5873672329799763</v>
       </c>
       <c r="AB238" t="n">
-        <v>0.6247166322323738</v>
+        <v>0.3593539398884665</v>
       </c>
       <c r="AC238" t="n">
-        <v>5.898854032250694</v>
+        <v>7.143456977549523</v>
       </c>
       <c r="AD238" t="n">
-        <v>9.109103801205571</v>
+        <v>6.025694101114985</v>
       </c>
       <c r="AE238" t="n">
-        <v>2.385220778389278</v>
+        <v>2.441877731391148</v>
       </c>
       <c r="AF238" t="n">
-        <v>0.5769137186143162</v>
+        <v>0.6783747587708853</v>
       </c>
       <c r="AG238" t="n">
-        <v>1.232863126756236</v>
+        <v>2.627202758473678</v>
       </c>
       <c r="AH238" t="n">
-        <v>0.7279788600380454</v>
+        <v>0.5982963475754671</v>
       </c>
       <c r="AI238" t="n">
-        <v>1.10731362431174</v>
+        <v>0.3847170664179176</v>
       </c>
       <c r="AJ238" t="n">
-        <v>4.349389957024558</v>
+        <v>4.640148250041458</v>
       </c>
       <c r="AK238" t="n">
-        <v>0.2968406431910027</v>
+        <v>0.1278905996901275</v>
       </c>
       <c r="AL238" t="n">
-        <v>-0.07135341208376315</v>
+        <v>0.273507039157148</v>
       </c>
       <c r="AM238" t="n">
-        <v>0.6820630678570815</v>
+        <v>0.4043856623192529</v>
       </c>
       <c r="AN238" t="n">
-        <v>0.5381770412005871</v>
+        <v>0.5593854074794794</v>
       </c>
       <c r="AO238" t="n">
-        <v>1.235328315962314</v>
+        <v>2.674867181545582</v>
       </c>
       <c r="AP238" t="n">
-        <v>0.3877065556068021</v>
+        <v>0.6967431528703532</v>
       </c>
       <c r="AQ238" t="n">
-        <v>-0.1244166001544649</v>
+        <v>-0.03541767491326937</v>
       </c>
       <c r="AR238" t="n">
-        <v>0.9501639417173739</v>
+        <v>1.609917470060018</v>
       </c>
       <c r="AS238" t="n">
-        <v>15.02972952202776</v>
+        <v>21.20681850767102</v>
       </c>
       <c r="AT238" t="n">
-        <v>-0.1028235386674959</v>
+        <v>0.204222752741233</v>
       </c>
       <c r="AU238" t="n">
-        <v>-0.0435309448017841</v>
+        <v>0.3403314179200237</v>
       </c>
       <c r="AV238" t="n">
-        <v>1.145920662635287</v>
+        <v>0.5439089152872892</v>
       </c>
       <c r="AW238" t="n">
-        <v>0.7339604658334935</v>
+        <v>3.887106216903995</v>
       </c>
       <c r="AX238" t="n">
-        <v>1.323292857412447</v>
+        <v>0.6024013594641163</v>
       </c>
       <c r="AY238" t="n">
-        <v>0.1239041481175161</v>
+        <v>0.1722459716145954</v>
       </c>
       <c r="AZ238" t="n">
-        <v>0.4436740694843516</v>
+        <v>0.4627923783007249</v>
       </c>
       <c r="BA238" t="n">
-        <v>6.003125864878027</v>
+        <v>6.792439954796615</v>
       </c>
       <c r="BB238" t="n">
-        <v>1.874209346943664</v>
+        <v>0.9863643602618224</v>
       </c>
       <c r="BC238" t="n">
-        <v>0.6058788920979795</v>
+        <v>1.00857999593848</v>
       </c>
       <c r="BD238" t="n">
-        <v>0.5220438990512661</v>
+        <v>0.3423885645050542</v>
       </c>
       <c r="BE238" t="n">
-        <v>0.6158921435905104</v>
+        <v>0.3260754280917906</v>
       </c>
       <c r="BF238" t="n">
-        <v>-0.007823345236570186</v>
+        <v>0.05229863757629187</v>
       </c>
       <c r="BG238" t="n">
-        <v>0.25255905761445</v>
+        <v>0.1584708514525137</v>
       </c>
     </row>
     <row r="239">
@@ -43275,178 +43275,178 @@
         <v>237</v>
       </c>
       <c r="B239" s="2" t="n">
-        <v>44084</v>
+        <v>44424</v>
       </c>
       <c r="C239" t="n">
-        <v>124.5316846646619</v>
+        <v>125.4268086823832</v>
       </c>
       <c r="D239" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E239" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F239" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G239" t="n">
-        <v>1.082778341583789</v>
+        <v>0.771761668078039</v>
       </c>
       <c r="H239" t="n">
-        <v>0.21321678184031</v>
+        <v>0.2639826989901631</v>
       </c>
       <c r="I239" t="n">
-        <v>-0.6693893489737804</v>
+        <v>-0.9163855383617797</v>
       </c>
       <c r="J239" t="n">
-        <v>25.27292351401283</v>
+        <v>16.75101444419176</v>
       </c>
       <c r="K239" t="n">
-        <v>0.3285375375451119</v>
+        <v>0.5922195086988518</v>
       </c>
       <c r="L239" t="n">
-        <v>0.2610827137038323</v>
+        <v>0.339541641241259</v>
       </c>
       <c r="M239" t="n">
-        <v>3.529953987449581</v>
+        <v>3.611890062380184</v>
       </c>
       <c r="N239" t="n">
-        <v>1.333977759558356</v>
+        <v>0.4153916854855038</v>
       </c>
       <c r="O239" t="n">
-        <v>1.446977928674648</v>
+        <v>2.291039099328528</v>
       </c>
       <c r="P239" t="n">
-        <v>2.793355667319793</v>
+        <v>3.138097768017012</v>
       </c>
       <c r="Q239" t="n">
-        <v>3.614226487177018</v>
+        <v>5.286993004472005</v>
       </c>
       <c r="R239" t="n">
-        <v>0.1616363432112298</v>
+        <v>0.07736928893318398</v>
       </c>
       <c r="S239" t="n">
-        <v>2.056212167423896</v>
+        <v>2.116928627100099</v>
       </c>
       <c r="T239" t="n">
-        <v>0.1719608513096249</v>
+        <v>0.1422473735627881</v>
       </c>
       <c r="U239" t="n">
-        <v>1.341064569386642</v>
+        <v>2.297952660675945</v>
       </c>
       <c r="V239" t="n">
-        <v>12.17826712865598</v>
+        <v>7.296802749311136</v>
       </c>
       <c r="W239" t="n">
-        <v>1.675078851802122</v>
+        <v>1.832944746911989</v>
       </c>
       <c r="X239" t="n">
-        <v>2.215815518080079</v>
+        <v>1.995360895586603</v>
       </c>
       <c r="Y239" t="n">
-        <v>4.373697806190704</v>
+        <v>4.984649383104353</v>
       </c>
       <c r="Z239" t="n">
-        <v>1.273118597745677</v>
+        <v>2.542968162981691</v>
       </c>
       <c r="AA239" t="n">
-        <v>1.52728603256987</v>
+        <v>0.6614330202537677</v>
       </c>
       <c r="AB239" t="n">
-        <v>0.6105597107269181</v>
+        <v>0.36768801317794</v>
       </c>
       <c r="AC239" t="n">
-        <v>5.846005585695332</v>
+        <v>7.689093227946587</v>
       </c>
       <c r="AD239" t="n">
-        <v>9.257988808776116</v>
+        <v>5.934277176137067</v>
       </c>
       <c r="AE239" t="n">
-        <v>2.402778531635112</v>
+        <v>2.542753022263289</v>
       </c>
       <c r="AF239" t="n">
-        <v>0.573834108028307</v>
+        <v>0.679375606771247</v>
       </c>
       <c r="AG239" t="n">
-        <v>1.208725607016439</v>
+        <v>2.843584232882852</v>
       </c>
       <c r="AH239" t="n">
-        <v>0.7228316752100168</v>
+        <v>0.5939200372499098</v>
       </c>
       <c r="AI239" t="n">
-        <v>1.039731102637839</v>
+        <v>0.3860972173034248</v>
       </c>
       <c r="AJ239" t="n">
-        <v>4.312321292772162</v>
+        <v>4.696397364545238</v>
       </c>
       <c r="AK239" t="n">
-        <v>0.2578526184008711</v>
+        <v>0.126020433441402</v>
       </c>
       <c r="AL239" t="n">
-        <v>-0.05931314060815285</v>
+        <v>0.2652891851427784</v>
       </c>
       <c r="AM239" t="n">
-        <v>0.6724086445429662</v>
+        <v>0.4079395378008947</v>
       </c>
       <c r="AN239" t="n">
-        <v>0.6132638195837544</v>
+        <v>0.5416557883291108</v>
       </c>
       <c r="AO239" t="n">
-        <v>1.178385307983089</v>
+        <v>2.743156379283174</v>
       </c>
       <c r="AP239" t="n">
-        <v>0.3793492446899531</v>
+        <v>0.7139037617252362</v>
       </c>
       <c r="AQ239" t="n">
-        <v>-0.1349456447257086</v>
+        <v>-0.03532591928729271</v>
       </c>
       <c r="AR239" t="n">
-        <v>0.9554204763111254</v>
+        <v>1.564518495869269</v>
       </c>
       <c r="AS239" t="n">
-        <v>15.16839089793655</v>
+        <v>21.07130585551185</v>
       </c>
       <c r="AT239" t="n">
-        <v>-0.09087272737011073</v>
+        <v>0.2064939974406846</v>
       </c>
       <c r="AU239" t="n">
-        <v>-0.03978809721148141</v>
+        <v>0.3436505679354956</v>
       </c>
       <c r="AV239" t="n">
-        <v>1.123613627383377</v>
+        <v>0.5460089497070678</v>
       </c>
       <c r="AW239" t="n">
-        <v>0.6674801562578385</v>
+        <v>3.775285353105692</v>
       </c>
       <c r="AX239" t="n">
-        <v>1.292675253130661</v>
+        <v>0.6021111854758983</v>
       </c>
       <c r="AY239" t="n">
-        <v>0.1191122749619264</v>
+        <v>0.1692124707451522</v>
       </c>
       <c r="AZ239" t="n">
-        <v>0.4131442183798591</v>
+        <v>0.4867241035830443</v>
       </c>
       <c r="BA239" t="n">
-        <v>6.073496140599879</v>
+        <v>6.69082244743584</v>
       </c>
       <c r="BB239" t="n">
-        <v>1.891302753913676</v>
+        <v>0.9821539263301376</v>
       </c>
       <c r="BC239" t="n">
-        <v>0.5915724247548548</v>
+        <v>1.109716352484603</v>
       </c>
       <c r="BD239" t="n">
-        <v>0.4756163696615217</v>
+        <v>0.3436373981859436</v>
       </c>
       <c r="BE239" t="n">
-        <v>0.5954838831893426</v>
+        <v>0.3342005863400263</v>
       </c>
       <c r="BF239" t="n">
-        <v>-0.007823345236570186</v>
+        <v>0.05229863757629187</v>
       </c>
       <c r="BG239" t="n">
-        <v>0.2393038493671142</v>
+        <v>0.1586403390002367</v>
       </c>
     </row>
     <row r="240">
@@ -43454,178 +43454,178 @@
         <v>238</v>
       </c>
       <c r="B240" s="2" t="n">
-        <v>44085</v>
+        <v>44425</v>
       </c>
       <c r="C240" t="n">
-        <v>128.6903390319629</v>
+        <v>119.5114220564318</v>
       </c>
       <c r="D240" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E240" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F240" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G240" t="n">
-        <v>1.11615738011969</v>
+        <v>0.7091805451548607</v>
       </c>
       <c r="H240" t="n">
-        <v>0.2190916175494368</v>
+        <v>0.2371251551163113</v>
       </c>
       <c r="I240" t="n">
-        <v>-0.6879952973344131</v>
+        <v>-0.9076580569348396</v>
       </c>
       <c r="J240" t="n">
-        <v>26.44606983235351</v>
+        <v>16.27770918388072</v>
       </c>
       <c r="K240" t="n">
-        <v>0.3503553852530929</v>
+        <v>0.5821863068848488</v>
       </c>
       <c r="L240" t="n">
-        <v>0.2612155126484235</v>
+        <v>0.321715705065363</v>
       </c>
       <c r="M240" t="n">
-        <v>3.683662989113897</v>
+        <v>3.481907896087152</v>
       </c>
       <c r="N240" t="n">
-        <v>1.465919227929504</v>
+        <v>0.4067973747939028</v>
       </c>
       <c r="O240" t="n">
-        <v>1.504764216412475</v>
+        <v>2.231510267567422</v>
       </c>
       <c r="P240" t="n">
-        <v>2.852373150560708</v>
+        <v>2.826329449436435</v>
       </c>
       <c r="Q240" t="n">
-        <v>3.750496883593347</v>
+        <v>5.125879339733528</v>
       </c>
       <c r="R240" t="n">
-        <v>0.1667308984297744</v>
+        <v>0.0722113363507783</v>
       </c>
       <c r="S240" t="n">
-        <v>2.08425840965074</v>
+        <v>2.012011152589242</v>
       </c>
       <c r="T240" t="n">
-        <v>0.17671892630438</v>
+        <v>0.131662475391358</v>
       </c>
       <c r="U240" t="n">
-        <v>1.351661596340234</v>
+        <v>2.198956472198125</v>
       </c>
       <c r="V240" t="n">
-        <v>12.51642033880762</v>
+        <v>7.005457338234478</v>
       </c>
       <c r="W240" t="n">
-        <v>1.705900302817748</v>
+        <v>1.766461557377718</v>
       </c>
       <c r="X240" t="n">
-        <v>2.251739502562012</v>
+        <v>1.998720088992557</v>
       </c>
       <c r="Y240" t="n">
-        <v>4.507528660769472</v>
+        <v>4.861919903300933</v>
       </c>
       <c r="Z240" t="n">
-        <v>1.289913686105983</v>
+        <v>2.359195396494739</v>
       </c>
       <c r="AA240" t="n">
-        <v>1.625468706070579</v>
+        <v>0.6589301074163624</v>
       </c>
       <c r="AB240" t="n">
-        <v>0.6225647801772449</v>
+        <v>0.3442396035979488</v>
       </c>
       <c r="AC240" t="n">
-        <v>6.067173266314638</v>
+        <v>6.986493124541634</v>
       </c>
       <c r="AD240" t="n">
-        <v>9.981676291468872</v>
+        <v>5.849342135430962</v>
       </c>
       <c r="AE240" t="n">
-        <v>2.451940240681836</v>
+        <v>2.385725475851319</v>
       </c>
       <c r="AF240" t="n">
-        <v>0.5812251734161409</v>
+        <v>0.6389413485232176</v>
       </c>
       <c r="AG240" t="n">
-        <v>1.228793966364663</v>
+        <v>2.570365844651308</v>
       </c>
       <c r="AH240" t="n">
-        <v>0.7509788927599989</v>
+        <v>0.5799705474371598</v>
       </c>
       <c r="AI240" t="n">
-        <v>1.05584693472555</v>
+        <v>0.364014802759565</v>
       </c>
       <c r="AJ240" t="n">
-        <v>4.421056041492359</v>
+        <v>4.406270352721177</v>
       </c>
       <c r="AK240" t="n">
-        <v>0.2584433460504517</v>
+        <v>0.1181081916198711</v>
       </c>
       <c r="AL240" t="n">
-        <v>-0.06153368247887615</v>
+        <v>0.2508552620492887</v>
       </c>
       <c r="AM240" t="n">
-        <v>0.7019204613765488</v>
+        <v>0.3872968141845632</v>
       </c>
       <c r="AN240" t="n">
-        <v>0.6345990495192666</v>
+        <v>0.511186323203098</v>
       </c>
       <c r="AO240" t="n">
-        <v>1.207191770797818</v>
+        <v>2.744398001090007</v>
       </c>
       <c r="AP240" t="n">
-        <v>0.3909768077673389</v>
+        <v>0.6729650543207932</v>
       </c>
       <c r="AQ240" t="n">
-        <v>-0.127411099066365</v>
+        <v>-0.03202271644068825</v>
       </c>
       <c r="AR240" t="n">
-        <v>0.9635771679003335</v>
+        <v>1.520341801687279</v>
       </c>
       <c r="AS240" t="n">
-        <v>15.24305471556883</v>
+        <v>19.72529453718089</v>
       </c>
       <c r="AT240" t="n">
-        <v>-0.09219197277101386</v>
+        <v>0.1904060141337225</v>
       </c>
       <c r="AU240" t="n">
-        <v>-0.04165952101832172</v>
+        <v>0.3226687981731255</v>
       </c>
       <c r="AV240" t="n">
-        <v>1.163270578958013</v>
+        <v>0.5258486192207287</v>
       </c>
       <c r="AW240" t="n">
-        <v>0.6784114822703761</v>
+        <v>3.600631813477793</v>
       </c>
       <c r="AX240" t="n">
-        <v>1.33737695533786</v>
+        <v>0.5788972602292953</v>
       </c>
       <c r="AY240" t="n">
-        <v>0.1197968282877833</v>
+        <v>0.15973278049679</v>
       </c>
       <c r="AZ240" t="n">
-        <v>0.4179021172830745</v>
+        <v>0.4523433151259998</v>
       </c>
       <c r="BA240" t="n">
-        <v>6.181758103839587</v>
+        <v>6.509893713975039</v>
       </c>
       <c r="BB240" t="n">
-        <v>1.993311794384074</v>
+        <v>0.9459441929951584</v>
       </c>
       <c r="BC240" t="n">
-        <v>0.6001563051536597</v>
+        <v>0.9983735746496047</v>
       </c>
       <c r="BD240" t="n">
-        <v>0.4805780903567065</v>
+        <v>0.3282351162691481</v>
       </c>
       <c r="BE240" t="n">
-        <v>0.6067813131094717</v>
+        <v>0.313139320994171</v>
       </c>
       <c r="BF240" t="n">
-        <v>-0.007823345236570186</v>
+        <v>0.05229863757629187</v>
       </c>
       <c r="BG240" t="n">
-        <v>0.2421442511133672</v>
+        <v>0.1510133995735522</v>
       </c>
     </row>
     <row r="241">
@@ -43633,178 +43633,178 @@
         <v>239</v>
       </c>
       <c r="B241" s="2" t="n">
-        <v>44088</v>
+        <v>44426</v>
       </c>
       <c r="C241" t="n">
-        <v>129.948265933472</v>
+        <v>119.5320922233828</v>
       </c>
       <c r="D241" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E241" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F241" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G241" t="n">
-        <v>1.129027667734504</v>
+        <v>0.7227145250335855</v>
       </c>
       <c r="H241" t="n">
-        <v>0.2232879287679286</v>
+        <v>0.2310347827058057</v>
       </c>
       <c r="I241" t="n">
-        <v>-0.6997195935341718</v>
+        <v>-0.901778490705046</v>
       </c>
       <c r="J241" t="n">
-        <v>26.2784774998919</v>
+        <v>16.5143618149253</v>
       </c>
       <c r="K241" t="n">
-        <v>0.3628804459743412</v>
+        <v>0.5490897710833972</v>
       </c>
       <c r="L241" t="n">
-        <v>0.286181713147278</v>
+        <v>0.3123783099374404</v>
       </c>
       <c r="M241" t="n">
-        <v>3.984198499782671</v>
+        <v>3.402474350220285</v>
       </c>
       <c r="N241" t="n">
-        <v>1.459220212944794</v>
+        <v>0.4026345055241906</v>
       </c>
       <c r="O241" t="n">
-        <v>1.54212804105961</v>
+        <v>2.238218402155063</v>
       </c>
       <c r="P241" t="n">
-        <v>2.918040491005693</v>
+        <v>2.869933410068908</v>
       </c>
       <c r="Q241" t="n">
-        <v>3.942771918745181</v>
+        <v>5.215153142729514</v>
       </c>
       <c r="R241" t="n">
-        <v>0.1756940464072334</v>
+        <v>0.07075839195242323</v>
       </c>
       <c r="S241" t="n">
-        <v>2.085218897361881</v>
+        <v>2.112457712033665</v>
       </c>
       <c r="T241" t="n">
-        <v>0.1847607431935347</v>
+        <v>0.1296820750875997</v>
       </c>
       <c r="U241" t="n">
-        <v>1.364637547668822</v>
+        <v>0.8173594310840399</v>
       </c>
       <c r="V241" t="n">
-        <v>12.58373420946556</v>
+        <v>7.034786406084984</v>
       </c>
       <c r="W241" t="n">
-        <v>1.763076327462221</v>
+        <v>1.807250760701772</v>
       </c>
       <c r="X241" t="n">
-        <v>2.386378974244258</v>
+        <v>1.912388817880475</v>
       </c>
       <c r="Y241" t="n">
-        <v>4.621449703472214</v>
+        <v>5.027689092917395</v>
       </c>
       <c r="Z241" t="n">
-        <v>1.33037458105753</v>
+        <v>2.402386999524253</v>
       </c>
       <c r="AA241" t="n">
-        <v>1.661313174222102</v>
+        <v>0.6640380927489594</v>
       </c>
       <c r="AB241" t="n">
-        <v>0.6393265752011955</v>
+        <v>0.3467822022349117</v>
       </c>
       <c r="AC241" t="n">
-        <v>6.121336779991477</v>
+        <v>6.916446670628816</v>
       </c>
       <c r="AD241" t="n">
-        <v>10.15608444365562</v>
+        <v>5.848895109281044</v>
       </c>
       <c r="AE241" t="n">
-        <v>2.537973231617628</v>
+        <v>2.372805487813261</v>
       </c>
       <c r="AF241" t="n">
-        <v>0.6773090241085629</v>
+        <v>0.6421440620128465</v>
       </c>
       <c r="AG241" t="n">
-        <v>1.28872160159484</v>
+        <v>2.538002237323337</v>
       </c>
       <c r="AH241" t="n">
-        <v>0.7502833273051636</v>
+        <v>0.5856050473231856</v>
       </c>
       <c r="AI241" t="n">
-        <v>1.06936343907536</v>
+        <v>0.367120142308318</v>
       </c>
       <c r="AJ241" t="n">
-        <v>4.399556216439604</v>
+        <v>4.489163784729599</v>
       </c>
       <c r="AK241" t="n">
-        <v>0.2740976287314624</v>
+        <v>0.1185397684465001</v>
       </c>
       <c r="AL241" t="n">
-        <v>-0.06479047720279513</v>
+        <v>0.2526463327922009</v>
       </c>
       <c r="AM241" t="n">
-        <v>0.7096001162798559</v>
+        <v>0.3876748860584132</v>
       </c>
       <c r="AN241" t="n">
-        <v>0.7614527037011803</v>
+        <v>0.5192548923243083</v>
       </c>
       <c r="AO241" t="n">
-        <v>1.264469737794894</v>
+        <v>2.598300505352748</v>
       </c>
       <c r="AP241" t="n">
-        <v>0.4000608413394476</v>
+        <v>0.6651137953049875</v>
       </c>
       <c r="AQ241" t="n">
-        <v>-0.1529126382293275</v>
+        <v>-0.03238973897681331</v>
       </c>
       <c r="AR241" t="n">
-        <v>0.9659335454986282</v>
+        <v>1.518944910181007</v>
       </c>
       <c r="AS241" t="n">
-        <v>14.90990516545701</v>
+        <v>20.72188982499856</v>
       </c>
       <c r="AT241" t="n">
-        <v>-0.09630491432346762</v>
+        <v>0.1913523661014173</v>
       </c>
       <c r="AU241" t="n">
-        <v>-0.04648047144904131</v>
+        <v>0.3105776088343888</v>
       </c>
       <c r="AV241" t="n">
-        <v>1.178141935745565</v>
+        <v>0.5237485848009501</v>
       </c>
       <c r="AW241" t="n">
-        <v>0.6837656011274046</v>
+        <v>3.583592443802853</v>
       </c>
       <c r="AX241" t="n">
-        <v>1.368606911727386</v>
+        <v>0.5771562158579042</v>
       </c>
       <c r="AY241" t="n">
-        <v>0.120285794927611</v>
+        <v>0.1632402658911922</v>
       </c>
       <c r="AZ241" t="n">
-        <v>0.4250389655578857</v>
+        <v>0.4422313185052981</v>
       </c>
       <c r="BA241" t="n">
-        <v>6.06537649354888</v>
+        <v>6.611865289684128</v>
       </c>
       <c r="BB241" t="n">
-        <v>1.984489390960919</v>
+        <v>0.9515581051496345</v>
       </c>
       <c r="BC241" t="n">
-        <v>0.628769239839909</v>
+        <v>0.948269324618553</v>
       </c>
       <c r="BD241" t="n">
-        <v>0.492273574880157</v>
+        <v>0.3153305016588162</v>
       </c>
       <c r="BE241" t="n">
-        <v>0.6155277103974957</v>
+        <v>0.3177364499488126</v>
       </c>
       <c r="BF241" t="n">
-        <v>-0.007823345236570186</v>
+        <v>0.05229863757629187</v>
       </c>
       <c r="BG241" t="n">
-        <v>0.2456947533329916</v>
+        <v>0.1511828871212752</v>
       </c>
     </row>
     <row r="242">
@@ -43812,178 +43812,178 @@
         <v>240</v>
       </c>
       <c r="B242" s="2" t="n">
-        <v>44089</v>
+        <v>44427</v>
       </c>
       <c r="C242" t="n">
-        <v>132.851054319424</v>
+        <v>122.4465031459469</v>
       </c>
       <c r="D242" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E242" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F242" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G242" t="n">
-        <v>1.145246322806072</v>
+        <v>0.7448561161141189</v>
       </c>
       <c r="H242" t="n">
-        <v>0.2272633815123148</v>
+        <v>0.2306354140228841</v>
       </c>
       <c r="I242" t="n">
-        <v>-0.719345045955799</v>
+        <v>-0.9059125607641209</v>
       </c>
       <c r="J242" t="n">
-        <v>27.0098638502658</v>
+        <v>16.87076637741635</v>
       </c>
       <c r="K242" t="n">
-        <v>0.3636307952341395</v>
+        <v>0.5408156371583152</v>
       </c>
       <c r="L242" t="n">
-        <v>0.286181713147278</v>
+        <v>0.3104683881954343</v>
       </c>
       <c r="M242" t="n">
-        <v>3.958197972179981</v>
+        <v>2.777953411939704</v>
       </c>
       <c r="N242" t="n">
-        <v>1.487763841902259</v>
+        <v>0.4074688052755639</v>
       </c>
       <c r="O242" t="n">
-        <v>1.559011384133502</v>
+        <v>2.439321713499683</v>
       </c>
       <c r="P242" t="n">
-        <v>2.930924589499178</v>
+        <v>2.943069144097227</v>
       </c>
       <c r="Q242" t="n">
-        <v>4.033694429593545</v>
+        <v>5.379122366914928</v>
       </c>
       <c r="R242" t="n">
-        <v>0.1770562269422667</v>
+        <v>0.07148486414065085</v>
       </c>
       <c r="S242" t="n">
-        <v>2.189719964206351</v>
+        <v>2.187767793190393</v>
       </c>
       <c r="T242" t="n">
-        <v>0.1954161505897123</v>
+        <v>0.1281114127643183</v>
       </c>
       <c r="U242" t="n">
-        <v>1.41524375774458</v>
+        <v>0.8135413907477783</v>
       </c>
       <c r="V242" t="n">
-        <v>13.48336429542229</v>
+        <v>7.180593771782701</v>
       </c>
       <c r="W242" t="n">
-        <v>1.780050459876428</v>
+        <v>1.846755264592266</v>
       </c>
       <c r="X242" t="n">
-        <v>2.466981527795516</v>
+        <v>1.924481914431434</v>
       </c>
       <c r="Y242" t="n">
-        <v>4.851533290704455</v>
+        <v>5.182125697515187</v>
       </c>
       <c r="Z242" t="n">
-        <v>1.385594796008327</v>
+        <v>2.36303094429232</v>
       </c>
       <c r="AA242" t="n">
-        <v>1.584637181514576</v>
+        <v>0.6467220224958882</v>
       </c>
       <c r="AB242" t="n">
-        <v>0.6512183892972522</v>
+        <v>0.3438864648855138</v>
       </c>
       <c r="AC242" t="n">
-        <v>6.226224854124758</v>
+        <v>7.21713388815126</v>
       </c>
       <c r="AD242" t="n">
-        <v>10.02527832930314</v>
+        <v>5.922877999967822</v>
       </c>
       <c r="AE242" t="n">
-        <v>2.493200960804344</v>
+        <v>2.398645463889377</v>
       </c>
       <c r="AF242" t="n">
-        <v>0.6754612577383694</v>
+        <v>0.6487496586665286</v>
       </c>
       <c r="AG242" t="n">
-        <v>1.268375799534546</v>
+        <v>2.521419231867366</v>
       </c>
       <c r="AH242" t="n">
-        <v>0.7581664029735715</v>
+        <v>0.591513066436031</v>
       </c>
       <c r="AI242" t="n">
-        <v>1.062085321371662</v>
+        <v>0.3606506849150827</v>
       </c>
       <c r="AJ242" t="n">
-        <v>4.460595950192582</v>
+        <v>4.495084744129427</v>
       </c>
       <c r="AK242" t="n">
-        <v>0.2705532628504158</v>
+        <v>0.1183959095042905</v>
       </c>
       <c r="AL242" t="n">
-        <v>-0.06493851334011545</v>
+        <v>0.2524356185728522</v>
       </c>
       <c r="AM242" t="n">
-        <v>0.7137690718413987</v>
+        <v>0.3895652453448205</v>
       </c>
       <c r="AN242" t="n">
-        <v>0.6909968279342984</v>
+        <v>0.5264741384531287</v>
       </c>
       <c r="AO242" t="n">
-        <v>1.300645295822232</v>
+        <v>2.653858486851408</v>
       </c>
       <c r="AP242" t="n">
-        <v>0.3955793847817271</v>
+        <v>0.6780122922292585</v>
       </c>
       <c r="AQ242" t="n">
-        <v>-0.1593846197524062</v>
+        <v>-0.03113574530366475</v>
       </c>
       <c r="AR242" t="n">
-        <v>0.9633959080486314</v>
+        <v>1.600488452353197</v>
       </c>
       <c r="AS242" t="n">
-        <v>15.55140043341759</v>
+        <v>22.02718657980759</v>
       </c>
       <c r="AT242" t="n">
-        <v>-0.09762415972437075</v>
+        <v>0.1892703917839967</v>
       </c>
       <c r="AU242" t="n">
-        <v>-0.04464973077707634</v>
+        <v>0.3128298892037003</v>
       </c>
       <c r="AV242" t="n">
-        <v>1.173184816816381</v>
+        <v>0.5250086055092826</v>
       </c>
       <c r="AW242" t="n">
-        <v>0.6897889848798751</v>
+        <v>3.711387716671412</v>
       </c>
       <c r="AX242" t="n">
-        <v>1.363708095086508</v>
+        <v>0.5817990008851207</v>
       </c>
       <c r="AY242" t="n">
-        <v>0.120285794927611</v>
+        <v>0.1706344242698657</v>
       </c>
       <c r="AZ242" t="n">
-        <v>0.4230565077126617</v>
+        <v>0.439534786073111</v>
       </c>
       <c r="BA242" t="n">
-        <v>6.166601429271253</v>
+        <v>6.951062405899643</v>
       </c>
       <c r="BB242" t="n">
-        <v>1.998274396463076</v>
+        <v>0.9641894074358146</v>
       </c>
       <c r="BC242" t="n">
-        <v>0.6201853594411041</v>
+        <v>0.9547643200066958</v>
       </c>
       <c r="BD242" t="n">
-        <v>0.4880206714271415</v>
+        <v>0.3126246953686608</v>
       </c>
       <c r="BE242" t="n">
-        <v>0.6169854432632218</v>
+        <v>0.3301380072159085</v>
       </c>
       <c r="BF242" t="n">
-        <v>-0.007823345236570186</v>
+        <v>0.05229863757629187</v>
       </c>
       <c r="BG242" t="n">
-        <v>0.2464048538063631</v>
+        <v>0.152538787503059</v>
       </c>
     </row>
     <row r="243">
@@ -43991,178 +43991,178 @@
         <v>241</v>
       </c>
       <c r="B243" s="2" t="n">
-        <v>44090</v>
+        <v>44428</v>
       </c>
       <c r="C243" t="n">
-        <v>131.9900267379437</v>
+        <v>123.9639174415409</v>
       </c>
       <c r="D243" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E243" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F243" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G243" t="n">
-        <v>1.150896692963885</v>
+        <v>0.8113891611518136</v>
       </c>
       <c r="H243" t="n">
-        <v>0.2239505042226277</v>
+        <v>0.2305854929314472</v>
       </c>
       <c r="I243" t="n">
-        <v>-0.7084278570958544</v>
+        <v>-0.9177635617148046</v>
       </c>
       <c r="J243" t="n">
-        <v>27.15834864797743</v>
+        <v>16.9106836873058</v>
       </c>
       <c r="K243" t="n">
-        <v>0.3844674169869997</v>
+        <v>0.5552790838910648</v>
       </c>
       <c r="L243" t="n">
-        <v>0.2990632102078895</v>
+        <v>0.3111050287836328</v>
       </c>
       <c r="M243" t="n">
-        <v>3.965845186157114</v>
+        <v>2.846758221553773</v>
       </c>
       <c r="N243" t="n">
-        <v>1.43358919923768</v>
+        <v>0.3984716362544785</v>
       </c>
       <c r="O243" t="n">
-        <v>1.543288408237693</v>
+        <v>2.502040427597963</v>
       </c>
       <c r="P243" t="n">
-        <v>2.915962410498022</v>
+        <v>2.975177514991612</v>
       </c>
       <c r="Q243" t="n">
-        <v>3.936196475461329</v>
+        <v>5.769883121185249</v>
       </c>
       <c r="R243" t="n">
-        <v>0.1747950072497314</v>
+        <v>0.0710635102631569</v>
       </c>
       <c r="S243" t="n">
-        <v>2.119796456233799</v>
+        <v>2.126367225689966</v>
       </c>
       <c r="T243" t="n">
-        <v>0.1921994238303484</v>
+        <v>0.1255164054805895</v>
       </c>
       <c r="U243" t="n">
-        <v>1.378154163565611</v>
+        <v>0.7968084140533972</v>
       </c>
       <c r="V243" t="n">
-        <v>13.218068451251</v>
+        <v>7.307546736602097</v>
       </c>
       <c r="W243" t="n">
-        <v>1.81020187921692</v>
+        <v>1.93363305556484</v>
       </c>
       <c r="X243" t="n">
-        <v>2.396642969727804</v>
+        <v>1.981924121962784</v>
       </c>
       <c r="Y243" t="n">
-        <v>4.840062074451753</v>
+        <v>5.051559855866629</v>
       </c>
       <c r="Z243" t="n">
-        <v>1.41358661010708</v>
+        <v>2.312835297501548</v>
       </c>
       <c r="AA243" t="n">
-        <v>1.518870374838446</v>
+        <v>0.6510638100530286</v>
       </c>
       <c r="AB243" t="n">
-        <v>0.637967510764813</v>
+        <v>0.3425445378245454</v>
       </c>
       <c r="AC243" t="n">
-        <v>6.188826237473287</v>
+        <v>7.442222188589598</v>
       </c>
       <c r="AD243" t="n">
-        <v>10.41556974229724</v>
+        <v>5.773347625370219</v>
       </c>
       <c r="AE243" t="n">
-        <v>2.421214172527633</v>
+        <v>2.348953202316564</v>
       </c>
       <c r="AF243" t="n">
-        <v>0.6732028766295707</v>
+        <v>0.5519134267403505</v>
       </c>
       <c r="AG243" t="n">
-        <v>1.244608203410841</v>
+        <v>2.53425768767451</v>
       </c>
       <c r="AH243" t="n">
-        <v>0.7572389822387224</v>
+        <v>0.6004845029308491</v>
       </c>
       <c r="AI243" t="n">
-        <v>1.036092043804777</v>
+        <v>0.357976642513354</v>
       </c>
       <c r="AJ243" t="n">
-        <v>4.418090548565801</v>
+        <v>4.52388213781681</v>
       </c>
       <c r="AK243" t="n">
-        <v>0.2761651755049941</v>
+        <v>0.1182520505620808</v>
       </c>
       <c r="AL243" t="n">
-        <v>-0.06469178647159322</v>
+        <v>0.2699248976713235</v>
       </c>
       <c r="AM243" t="n">
-        <v>0.7030175549104948</v>
+        <v>0.3951607088955467</v>
       </c>
       <c r="AN243" t="n">
-        <v>0.7022433058157784</v>
+        <v>0.4357595665552295</v>
       </c>
       <c r="AO243" t="n">
-        <v>1.272173791832619</v>
+        <v>2.616927770130104</v>
       </c>
       <c r="AP243" t="n">
-        <v>0.3908556873106711</v>
+        <v>0.6700671950592665</v>
       </c>
       <c r="AQ243" t="n">
-        <v>-0.157452684976771</v>
+        <v>-0.03055462628544854</v>
       </c>
       <c r="AR243" t="n">
-        <v>0.9659335454986282</v>
+        <v>1.613060475909643</v>
       </c>
       <c r="AS243" t="n">
-        <v>15.15969953523417</v>
+        <v>22.22893635762188</v>
       </c>
       <c r="AT243" t="n">
-        <v>-0.096460119673212</v>
+        <v>0.1936236108008688</v>
       </c>
       <c r="AU243" t="n">
-        <v>-0.04558544266880752</v>
+        <v>0.3156748749345875</v>
       </c>
       <c r="AV243" t="n">
-        <v>1.153356341099645</v>
+        <v>0.5338287500441197</v>
       </c>
       <c r="AW243" t="n">
-        <v>0.6781883939718956</v>
+        <v>3.709257795462045</v>
       </c>
       <c r="AX243" t="n">
-        <v>1.356972222122411</v>
+        <v>0.5934059635084221</v>
       </c>
       <c r="AY243" t="n">
-        <v>0.1186233083220986</v>
+        <v>0.1727199561144727</v>
       </c>
       <c r="AZ243" t="n">
-        <v>0.4198845751282985</v>
+        <v>0.4439166512754151</v>
       </c>
       <c r="BA243" t="n">
-        <v>6.059963395332043</v>
+        <v>7.646097833149051</v>
       </c>
       <c r="BB243" t="n">
-        <v>1.978975388760056</v>
+        <v>0.9799083614683473</v>
       </c>
       <c r="BC243" t="n">
-        <v>0.626623269749045</v>
+        <v>0.9649707412955703</v>
       </c>
       <c r="BD243" t="n">
-        <v>0.4837677679741259</v>
+        <v>0.3307327835756116</v>
       </c>
       <c r="BE243" t="n">
-        <v>0.607510179495501</v>
+        <v>0.3293896373969746</v>
       </c>
       <c r="BF243" t="n">
-        <v>-0.007823345236570186</v>
+        <v>0.05229863757629187</v>
       </c>
       <c r="BG243" t="n">
-        <v>0.2497186558681971</v>
+        <v>0.1530472500726115</v>
       </c>
     </row>
     <row r="244">
@@ -44170,178 +44170,178 @@
         <v>242</v>
       </c>
       <c r="B244" s="2" t="n">
-        <v>44091</v>
+        <v>44431</v>
       </c>
       <c r="C244" t="n">
-        <v>135.5135107383366</v>
+        <v>127.4718494969274</v>
       </c>
       <c r="D244" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E244" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F244" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G244" t="n">
-        <v>1.213364674252426</v>
+        <v>0.8823613516183538</v>
       </c>
       <c r="H244" t="n">
-        <v>0.2500559772025396</v>
+        <v>0.2315339935554098</v>
       </c>
       <c r="I244" t="n">
-        <v>-0.7400749610982255</v>
+        <v>-0.9230919187180575</v>
       </c>
       <c r="J244" t="n">
-        <v>27.63733186944209</v>
+        <v>16.93919605202058</v>
       </c>
       <c r="K244" t="n">
-        <v>0.3942219574149391</v>
+        <v>0.6663609608972203</v>
       </c>
       <c r="L244" t="n">
-        <v>0.3084919348672555</v>
+        <v>0.3183202886552093</v>
       </c>
       <c r="M244" t="n">
-        <v>4.123377794809997</v>
+        <v>2.82588851601066</v>
       </c>
       <c r="N244" t="n">
-        <v>1.492715287716514</v>
+        <v>0.4007992620625697</v>
       </c>
       <c r="O244" t="n">
-        <v>1.575546617184888</v>
+        <v>2.457944996599159</v>
       </c>
       <c r="P244" t="n">
-        <v>3.112548815918323</v>
+        <v>2.959123329661219</v>
       </c>
       <c r="Q244" t="n">
-        <v>4.329816122878589</v>
+        <v>5.878845254449178</v>
       </c>
       <c r="R244" t="n">
-        <v>0.1797805880342332</v>
+        <v>0.07328651519548711</v>
       </c>
       <c r="S244" t="n">
-        <v>2.203166792685613</v>
+        <v>2.420553439857134</v>
       </c>
       <c r="T244" t="n">
-        <v>0.2003082558730491</v>
+        <v>0.1302283924134127</v>
       </c>
       <c r="U244" t="n">
-        <v>1.363664351319178</v>
+        <v>0.7719081511241412</v>
       </c>
       <c r="V244" t="n">
-        <v>13.66867542224985</v>
+        <v>7.602932348173195</v>
       </c>
       <c r="W244" t="n">
-        <v>1.864251090272329</v>
+        <v>1.943107713160235</v>
       </c>
       <c r="X244" t="n">
-        <v>2.445246007590362</v>
+        <v>2.038358571472346</v>
       </c>
       <c r="Y244" t="n">
-        <v>5.130534362555229</v>
+        <v>4.974160714605408</v>
       </c>
       <c r="Z244" t="n">
-        <v>1.456337744304029</v>
+        <v>2.277981841802153</v>
       </c>
       <c r="AA244" t="n">
-        <v>1.565935719900048</v>
+        <v>0.6331347815600457</v>
       </c>
       <c r="AB244" t="n">
-        <v>0.6520111768697135</v>
+        <v>0.3596364508584146</v>
       </c>
       <c r="AC244" t="n">
-        <v>6.446747731129133</v>
+        <v>7.455889789330852</v>
       </c>
       <c r="AD244" t="n">
-        <v>10.26296260902764</v>
+        <v>6.066150002518905</v>
       </c>
       <c r="AE244" t="n">
-        <v>2.509002938756801</v>
+        <v>2.473680778789427</v>
       </c>
       <c r="AF244" t="n">
-        <v>0.7021512162124087</v>
+        <v>0.5561252203269793</v>
       </c>
       <c r="AG244" t="n">
-        <v>1.356880038717039</v>
+        <v>2.486113478269685</v>
       </c>
       <c r="AH244" t="n">
-        <v>0.7640555242353969</v>
+        <v>0.5946311875863263</v>
       </c>
       <c r="AI244" t="n">
-        <v>1.041290699318154</v>
+        <v>0.3786789061717066</v>
       </c>
       <c r="AJ244" t="n">
-        <v>4.466774061312151</v>
+        <v>4.460904660190611</v>
       </c>
       <c r="AK244" t="n">
-        <v>0.2829585434587336</v>
+        <v>0.1219923830595318</v>
       </c>
       <c r="AL244" t="n">
-        <v>-0.065629348593587</v>
+        <v>0.2784588230012104</v>
       </c>
       <c r="AM244" t="n">
-        <v>0.7317614062785995</v>
+        <v>0.4006805580549342</v>
       </c>
       <c r="AN244" t="n">
-        <v>0.716136013664635</v>
+        <v>0.4390082273974101</v>
       </c>
       <c r="AO244" t="n">
-        <v>1.301315213568832</v>
+        <v>2.668888429808434</v>
       </c>
       <c r="AP244" t="n">
-        <v>0.4026043707599773</v>
+        <v>0.6887320194348847</v>
       </c>
       <c r="AQ244" t="n">
-        <v>-0.1518500740930626</v>
+        <v>-0.03156393826784706</v>
       </c>
       <c r="AR244" t="n">
-        <v>0.9976540127548947</v>
+        <v>1.6850003888775</v>
       </c>
       <c r="AS244" t="n">
-        <v>15.59805463484064</v>
+        <v>24.12672116445022</v>
       </c>
       <c r="AT244" t="n">
-        <v>-0.09808977574483425</v>
+        <v>0.1985446409638343</v>
       </c>
       <c r="AU244" t="n">
-        <v>-0.04881975119005825</v>
+        <v>0.3213648463963616</v>
       </c>
       <c r="AV244" t="n">
-        <v>1.169053884351867</v>
+        <v>0.5397088464477322</v>
       </c>
       <c r="AW244" t="n">
-        <v>0.6859964841122109</v>
+        <v>3.88284637448526</v>
       </c>
       <c r="AX244" t="n">
-        <v>1.369219263835126</v>
+        <v>0.5963077041642475</v>
       </c>
       <c r="AY244" t="n">
-        <v>0.1207747615674388</v>
+        <v>0.1687384862201932</v>
       </c>
       <c r="AZ244" t="n">
-        <v>0.4254354571375987</v>
+        <v>0.4884094363531612</v>
       </c>
       <c r="BA244" t="n">
-        <v>6.113011757418232</v>
+        <v>8.021763950296567</v>
       </c>
       <c r="BB244" t="n">
-        <v>1.993311794384074</v>
+        <v>0.676876894131028</v>
       </c>
       <c r="BC244" t="n">
-        <v>0.6423603838194122</v>
+        <v>0.9733214496517538</v>
       </c>
       <c r="BD244" t="n">
-        <v>0.4890838972627377</v>
+        <v>0.3552931791153862</v>
       </c>
       <c r="BE244" t="n">
-        <v>0.6184431761289479</v>
+        <v>0.3298172772801272</v>
       </c>
       <c r="BF244" t="n">
-        <v>-0.007823345236570186</v>
+        <v>0.05229863757629187</v>
       </c>
       <c r="BG244" t="n">
-        <v>0.251375556899114</v>
+        <v>0.1538946878112263</v>
       </c>
     </row>
     <row r="245">
@@ -44349,178 +44349,178 @@
         <v>243</v>
       </c>
       <c r="B245" s="2" t="n">
-        <v>44092</v>
+        <v>44432</v>
       </c>
       <c r="C245" t="n">
-        <v>136.8655319219125</v>
+        <v>128.0058679547364</v>
       </c>
       <c r="D245" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E245" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F245" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G245" t="n">
-        <v>1.213678583672509</v>
+        <v>0.8883704386537634</v>
       </c>
       <c r="H245" t="n">
-        <v>0.2471406452018633</v>
+        <v>0.2511529800776194</v>
       </c>
       <c r="I245" t="n">
-        <v>-0.740244878417835</v>
+        <v>-0.9067393747472684</v>
       </c>
       <c r="J245" t="n">
-        <v>27.63254203656954</v>
+        <v>17.04754304007052</v>
       </c>
       <c r="K245" t="n">
-        <v>0.3851600470729672</v>
+        <v>0.6905318561649177</v>
       </c>
       <c r="L245" t="n">
-        <v>0.2987976123187072</v>
+        <v>0.381984346390769</v>
       </c>
       <c r="M245" t="n">
-        <v>4.128730844835307</v>
+        <v>2.832084209799782</v>
       </c>
       <c r="N245" t="n">
-        <v>1.485433749742466</v>
+        <v>0.3780153862269093</v>
       </c>
       <c r="O245" t="n">
-        <v>1.588484711736924</v>
+        <v>2.458038816595167</v>
       </c>
       <c r="P245" t="n">
-        <v>3.232661862907825</v>
+        <v>3.149791557634557</v>
       </c>
       <c r="Q245" t="n">
-        <v>4.5434046643655</v>
+        <v>5.680008147541985</v>
       </c>
       <c r="R245" t="n">
-        <v>0.1808158452452385</v>
+        <v>0.07283610244272797</v>
       </c>
       <c r="S245" t="n">
-        <v>2.208353426505187</v>
+        <v>2.451253723607347</v>
       </c>
       <c r="T245" t="n">
-        <v>0.2011124375490072</v>
+        <v>0.130501551067064</v>
       </c>
       <c r="U245" t="n">
-        <v>1.470607816781801</v>
+        <v>0.7687541177936874</v>
       </c>
       <c r="V245" t="n">
-        <v>13.91654885243343</v>
+        <v>7.625557628816691</v>
       </c>
       <c r="W245" t="n">
-        <v>1.911823329586728</v>
+        <v>1.976831070047162</v>
       </c>
       <c r="X245" t="n">
-        <v>2.451585534280675</v>
+        <v>2.019547088398999</v>
       </c>
       <c r="Y245" t="n">
-        <v>5.177210345347007</v>
+        <v>4.313296445452957</v>
       </c>
       <c r="Z245" t="n">
-        <v>1.374652541451062</v>
+        <v>2.518287247007231</v>
       </c>
       <c r="AA245" t="n">
-        <v>1.605208789378516</v>
+        <v>0.6370679302905782</v>
       </c>
       <c r="AB245" t="n">
-        <v>0.6597125421634976</v>
+        <v>0.3601308450558237</v>
       </c>
       <c r="AC245" t="n">
-        <v>6.501770982959213</v>
+        <v>7.816159204162143</v>
       </c>
       <c r="AD245" t="n">
-        <v>10.19862301688306</v>
+        <v>6.007142500599384</v>
       </c>
       <c r="AE245" t="n">
-        <v>2.510758714050177</v>
+        <v>2.653566765512408</v>
       </c>
       <c r="AF245" t="n">
-        <v>0.6791567903858161</v>
+        <v>0.5674128270090281</v>
       </c>
       <c r="AG245" t="n">
-        <v>1.408484391253596</v>
+        <v>2.507644638596801</v>
       </c>
       <c r="AH245" t="n">
-        <v>0.7693418221929131</v>
+        <v>0.5880667219053871</v>
       </c>
       <c r="AI245" t="n">
-        <v>1.045449623698796</v>
+        <v>0.4015376556403291</v>
       </c>
       <c r="AJ245" t="n">
-        <v>4.525016638503905</v>
+        <v>4.806204248632501</v>
       </c>
       <c r="AK245" t="n">
-        <v>0.2829585434587336</v>
+        <v>0.1244379850770958</v>
       </c>
       <c r="AL245" t="n">
-        <v>-0.06622149308884499</v>
+        <v>0.2894159617050442</v>
       </c>
       <c r="AM245" t="n">
-        <v>0.7362594898257678</v>
+        <v>0.3981852838035039</v>
       </c>
       <c r="AN245" t="n">
-        <v>0.686200536013164</v>
+        <v>0.4424324916006532</v>
       </c>
       <c r="AO245" t="n">
-        <v>1.31169893859296</v>
+        <v>2.837653217064767</v>
       </c>
       <c r="AP245" t="n">
-        <v>0.4070858274024451</v>
+        <v>0.7075933157111572</v>
       </c>
       <c r="AQ245" t="n">
-        <v>-0.1476964143071898</v>
+        <v>-0.03180861995859709</v>
       </c>
       <c r="AR245" t="n">
-        <v>1.027380622116271</v>
+        <v>1.688492617722152</v>
       </c>
       <c r="AS245" t="n">
-        <v>15.8993630181685</v>
+        <v>23.69952208719778</v>
       </c>
       <c r="AT245" t="n">
-        <v>-0.09940902114573738</v>
+        <v>0.1958948555003205</v>
       </c>
       <c r="AU245" t="n">
-        <v>-0.04761959896839328</v>
+        <v>0.3283587696348997</v>
       </c>
       <c r="AV245" t="n">
-        <v>1.184751427745253</v>
+        <v>0.5418088808675107</v>
       </c>
       <c r="AW245" t="n">
-        <v>0.6911275146707588</v>
+        <v>3.897755822950833</v>
       </c>
       <c r="AX245" t="n">
-        <v>1.376567488906962</v>
+        <v>0.5942764856941177</v>
       </c>
       <c r="AY245" t="n">
-        <v>0.1215571082112285</v>
+        <v>0.1523058862123026</v>
       </c>
       <c r="AZ245" t="n">
-        <v>0.4321758138860381</v>
+        <v>0.5157118272290557</v>
       </c>
       <c r="BA245" t="n">
-        <v>6.20882359492377</v>
+        <v>8.010079707417978</v>
       </c>
       <c r="BB245" t="n">
-        <v>2.039629412969547</v>
+        <v>0.6788102759023068</v>
       </c>
       <c r="BC245" t="n">
-        <v>0.6416450604557909</v>
+        <v>1.0095078524225</v>
       </c>
       <c r="BD245" t="n">
-        <v>0.4965264783331726</v>
+        <v>0.3094239281680994</v>
       </c>
       <c r="BE245" t="n">
-        <v>0.6257318405512459</v>
+        <v>0.3377286155399528</v>
       </c>
       <c r="BF245" t="n">
-        <v>-0.007823345236570186</v>
+        <v>0.05146732791935905</v>
       </c>
       <c r="BG245" t="n">
-        <v>0.2527957577722405</v>
+        <v>0.1542336629066723</v>
       </c>
     </row>
     <row r="246">
@@ -44528,178 +44528,178 @@
         <v>244</v>
       </c>
       <c r="B246" s="2" t="n">
-        <v>44095</v>
+        <v>44433</v>
       </c>
       <c r="C246" t="n">
-        <v>135.5373045477901</v>
+        <v>123.003067881454</v>
       </c>
       <c r="D246" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E246" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F246" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G246" t="n">
-        <v>1.15832588341178</v>
+        <v>0.8634679156795603</v>
       </c>
       <c r="H246" t="n">
-        <v>0.2422375868208983</v>
+        <v>0.2384730244070041</v>
       </c>
       <c r="I246" t="n">
-        <v>-0.7254195907768587</v>
+        <v>-0.9026053046881937</v>
       </c>
       <c r="J246" t="n">
-        <v>27.0433926750393</v>
+        <v>16.82799782856605</v>
       </c>
       <c r="K246" t="n">
-        <v>0.3782337462132908</v>
+        <v>0.7673444854942358</v>
       </c>
       <c r="L246" t="n">
-        <v>0.2883064961703796</v>
+        <v>0.3953537985170438</v>
       </c>
       <c r="M246" t="n">
-        <v>4.068317853933325</v>
+        <v>2.759692420142499</v>
       </c>
       <c r="N246" t="n">
-        <v>1.453394982545311</v>
+        <v>0.3899668495798634</v>
       </c>
       <c r="O246" t="n">
-        <v>1.547349693579185</v>
+        <v>2.167243909385193</v>
       </c>
       <c r="P246" t="n">
-        <v>3.225180773407248</v>
+        <v>3.037214059040756</v>
       </c>
       <c r="Q246" t="n">
-        <v>4.41370971144781</v>
+        <v>5.565334895598972</v>
       </c>
       <c r="R246" t="n">
-        <v>0.1785546255527032</v>
+        <v>0.07086009804870118</v>
       </c>
       <c r="S246" t="n">
-        <v>2.164555185262441</v>
+        <v>2.424726293954024</v>
       </c>
       <c r="T246" t="n">
-        <v>0.2002412407195031</v>
+        <v>0.1259261434795768</v>
       </c>
       <c r="U246" t="n">
-        <v>1.497641048681115</v>
+        <v>0.7818682563169908</v>
       </c>
       <c r="V246" t="n">
-        <v>13.93634704966161</v>
+        <v>5.866116647101696</v>
       </c>
       <c r="W246" t="n">
-        <v>1.87608831407207</v>
+        <v>2.046630936866402</v>
       </c>
       <c r="X246" t="n">
-        <v>2.478453052227602</v>
+        <v>2.017195653014831</v>
       </c>
       <c r="Y246" t="n">
-        <v>5.082935408423022</v>
+        <v>4.325479788519508</v>
       </c>
       <c r="Z246" t="n">
-        <v>1.350477792893239</v>
+        <v>2.53429648973462</v>
       </c>
       <c r="AA246" t="n">
-        <v>1.601780188051571</v>
+        <v>0.6640380927489594</v>
       </c>
       <c r="AB246" t="n">
-        <v>0.6513316446515224</v>
+        <v>0.3592126844034925</v>
       </c>
       <c r="AC246" t="n">
-        <v>6.286621470627461</v>
+        <v>7.77451573280721</v>
       </c>
       <c r="AD246" t="n">
-        <v>9.887559697980119</v>
+        <v>5.793687333034493</v>
       </c>
       <c r="AE246" t="n">
-        <v>2.477398982955911</v>
+        <v>2.50796843920393</v>
       </c>
       <c r="AF246" t="n">
-        <v>0.6693020364734108</v>
+        <v>0.5544405028923278</v>
       </c>
       <c r="AG246" t="n">
-        <v>1.396831795503015</v>
+        <v>2.460570300534845</v>
       </c>
       <c r="AH246" t="n">
-        <v>0.7689244828044499</v>
+        <v>0.5866991248082734</v>
       </c>
       <c r="AI246" t="n">
-        <v>1.040250968185419</v>
+        <v>0.3942918633599057</v>
       </c>
       <c r="AJ246" t="n">
-        <v>4.438872995573314</v>
+        <v>4.611619990928272</v>
       </c>
       <c r="AK246" t="n">
-        <v>0.280004905210831</v>
+        <v>0.1277467407479179</v>
       </c>
       <c r="AL246" t="n">
-        <v>-0.06543196707715991</v>
+        <v>0.2894159617050442</v>
       </c>
       <c r="AM246" t="n">
-        <v>0.7366983273056203</v>
+        <v>0.3903970034010165</v>
       </c>
       <c r="AN246" t="n">
-        <v>0.671315491839853</v>
+        <v>0.4385692191433622</v>
       </c>
       <c r="AO246" t="n">
-        <v>1.274853462722654</v>
+        <v>2.739743874833098</v>
       </c>
       <c r="AP246" t="n">
-        <v>0.4230737265808835</v>
+        <v>0.7023868120387609</v>
       </c>
       <c r="AQ246" t="n">
-        <v>-0.1400652719101384</v>
+        <v>-0.03110516009500586</v>
       </c>
       <c r="AR246" t="n">
-        <v>1.026111803470245</v>
+        <v>1.658634061597906</v>
       </c>
       <c r="AS246" t="n">
-        <v>15.89839105574297</v>
+        <v>23.97905491175121</v>
       </c>
       <c r="AT246" t="n">
-        <v>-0.09956422649548174</v>
+        <v>0.1911630956906165</v>
       </c>
       <c r="AU246" t="n">
-        <v>-0.04597193235661141</v>
+        <v>0.3210092231653895</v>
       </c>
       <c r="AV246" t="n">
-        <v>1.193839479138951</v>
+        <v>0.5371888051722308</v>
       </c>
       <c r="AW246" t="n">
-        <v>0.6846579543213271</v>
+        <v>3.897755822950833</v>
       </c>
       <c r="AX246" t="n">
-        <v>1.474543822608677</v>
+        <v>0.5864417859123372</v>
       </c>
       <c r="AY246" t="n">
-        <v>0.120285794927611</v>
+        <v>0.1458902314706768</v>
       </c>
       <c r="AZ246" t="n">
-        <v>0.4305898475671859</v>
+        <v>0.5406547522267866</v>
       </c>
       <c r="BA246" t="n">
-        <v>6.531985555342396</v>
+        <v>5.980345454950031</v>
       </c>
       <c r="BB246" t="n">
-        <v>2.069405024706868</v>
+        <v>0.6691433677826014</v>
       </c>
       <c r="BC246" t="n">
-        <v>0.6330611800569861</v>
+        <v>0.9890950098447507</v>
       </c>
       <c r="BD246" t="n">
-        <v>0.4961720696844303</v>
+        <v>0.305613288657005</v>
       </c>
       <c r="BE246" t="n">
-        <v>0.623545241205823</v>
+        <v>0.3304587371516897</v>
       </c>
       <c r="BF246" t="n">
-        <v>-0.007823345236570186</v>
+        <v>0.05146732791935905</v>
       </c>
       <c r="BG246" t="n">
-        <v>0.2504287563415685</v>
+        <v>0.152369299955336</v>
       </c>
     </row>
     <row r="247">
@@ -44707,178 +44707,178 @@
         <v>245</v>
       </c>
       <c r="B247" s="2" t="n">
-        <v>44096</v>
+        <v>44434</v>
       </c>
       <c r="C247" t="n">
-        <v>133.4170553591644</v>
+        <v>119.1230677226454</v>
       </c>
       <c r="D247" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E247" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F247" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G247" t="n">
-        <v>1.12881839474361</v>
+        <v>0.8310946358594775</v>
       </c>
       <c r="H247" t="n">
-        <v>0.2340658228580203</v>
+        <v>0.2355276803846252</v>
       </c>
       <c r="I247" t="n">
-        <v>-0.7121660385572766</v>
+        <v>-0.8415129354162961</v>
       </c>
       <c r="J247" t="n">
-        <v>26.75778268441722</v>
+        <v>16.79663422844667</v>
       </c>
       <c r="K247" t="n">
-        <v>0.3710765686582917</v>
+        <v>0.7703414159042409</v>
       </c>
       <c r="L247" t="n">
-        <v>0.2964072314290125</v>
+        <v>0.3936560903119669</v>
       </c>
       <c r="M247" t="n">
-        <v>4.015552077410671</v>
+        <v>2.79947529541655</v>
       </c>
       <c r="N247" t="n">
-        <v>1.378832033583762</v>
+        <v>0.3701820300845649</v>
       </c>
       <c r="O247" t="n">
-        <v>1.522401798304861</v>
+        <v>2.167831257131791</v>
       </c>
       <c r="P247" t="n">
-        <v>3.141641941390526</v>
+        <v>2.883807397659676</v>
       </c>
       <c r="Q247" t="n">
-        <v>4.308729356041159</v>
+        <v>5.664227424870443</v>
       </c>
       <c r="R247" t="n">
-        <v>0.1732693650417341</v>
+        <v>0.06949433031994139</v>
       </c>
       <c r="S247" t="n">
-        <v>2.111536261648867</v>
+        <v>2.326068100551127</v>
       </c>
       <c r="T247" t="n">
-        <v>0.195014059742478</v>
+        <v>0.1229896878510182</v>
       </c>
       <c r="U247" t="n">
-        <v>1.506183550042926</v>
+        <v>0.7486015049876764</v>
       </c>
       <c r="V247" t="n">
-        <v>13.80330316397622</v>
+        <v>5.657445756464168</v>
       </c>
       <c r="W247" t="n">
-        <v>1.869834686446494</v>
+        <v>2.008798563937745</v>
       </c>
       <c r="X247" t="n">
-        <v>2.415963432035877</v>
+        <v>1.945308913548354</v>
       </c>
       <c r="Y247" t="n">
-        <v>4.99657165492783</v>
+        <v>4.036027138416636</v>
       </c>
       <c r="Z247" t="n">
-        <v>1.320704681614612</v>
+        <v>2.617844725746922</v>
       </c>
       <c r="AA247" t="n">
-        <v>1.613936138086355</v>
+        <v>0.6641402525044769</v>
       </c>
       <c r="AB247" t="n">
-        <v>0.638533787628734</v>
+        <v>0.3514436330539151</v>
       </c>
       <c r="AC247" t="n">
-        <v>6.282328416827284</v>
+        <v>6.67918566307624</v>
       </c>
       <c r="AD247" t="n">
-        <v>9.867885607426974</v>
+        <v>5.773347625370219</v>
       </c>
       <c r="AE247" t="n">
-        <v>2.406290082325889</v>
+        <v>2.347462434486024</v>
       </c>
       <c r="AF247" t="n">
-        <v>0.6547252130205755</v>
+        <v>0.5441637266524819</v>
       </c>
       <c r="AG247" t="n">
-        <v>1.378705535446554</v>
+        <v>1.489142550297051</v>
       </c>
       <c r="AH247" t="n">
-        <v>0.755337769982666</v>
+        <v>0.5698503294963282</v>
       </c>
       <c r="AI247" t="n">
-        <v>1.034012581576881</v>
+        <v>0.38816744366926</v>
       </c>
       <c r="AJ247" t="n">
-        <v>4.381443900423199</v>
+        <v>4.521459927059872</v>
       </c>
       <c r="AK247" t="n">
-        <v>0.2711439904835597</v>
+        <v>0.1337888163207233</v>
       </c>
       <c r="AL247" t="n">
-        <v>-0.06414898732843037</v>
+        <v>0.1844591751667162</v>
       </c>
       <c r="AM247" t="n">
-        <v>0.7109166285537281</v>
+        <v>0.3858601410805018</v>
       </c>
       <c r="AN247" t="n">
-        <v>0.641710792897152</v>
+        <v>0.4295256496647812</v>
       </c>
       <c r="AO247" t="n">
-        <v>1.235328315962314</v>
+        <v>2.654287913837091</v>
       </c>
       <c r="AP247" t="n">
-        <v>0.402846611673313</v>
+        <v>0.7033691712030438</v>
       </c>
       <c r="AQ247" t="n">
-        <v>-0.1360082088619735</v>
+        <v>-0.03037111502275575</v>
       </c>
       <c r="AR247" t="n">
-        <v>1.011429758641259</v>
+        <v>1.634886905833341</v>
       </c>
       <c r="AS247" t="n">
-        <v>15.42796119252428</v>
+        <v>23.27414604974075</v>
       </c>
       <c r="AT247" t="n">
-        <v>-0.09630491432346762</v>
+        <v>0.1905952845157536</v>
       </c>
       <c r="AU247" t="n">
-        <v>-0.04808745492594784</v>
+        <v>0.3083253284650773</v>
       </c>
       <c r="AV247" t="n">
-        <v>1.167401511422527</v>
+        <v>0.5275286467847842</v>
       </c>
       <c r="AW247" t="n">
-        <v>0.6732804517118283</v>
+        <v>3.91373023202109</v>
       </c>
       <c r="AX247" t="n">
-        <v>1.426780359862779</v>
+        <v>0.5794776083162522</v>
       </c>
       <c r="AY247" t="n">
-        <v>0.1185255150041657</v>
+        <v>0.1397382337388689</v>
       </c>
       <c r="AZ247" t="n">
-        <v>0.4218670329735225</v>
+        <v>0.543014218051609</v>
       </c>
       <c r="BA247" t="n">
-        <v>6.454036941787866</v>
+        <v>6.181345804448445</v>
       </c>
       <c r="BB247" t="n">
-        <v>2.015367803187525</v>
+        <v>0.6527096244456715</v>
       </c>
       <c r="BC247" t="n">
-        <v>0.6080248621888433</v>
+        <v>0.9445578986824715</v>
       </c>
       <c r="BD247" t="n">
-        <v>0.4841221765675529</v>
+        <v>0.3029458409660498</v>
       </c>
       <c r="BE247" t="n">
-        <v>0.6056880134367603</v>
+        <v>0.3346282262231788</v>
       </c>
       <c r="BF247" t="n">
-        <v>-0.007823345236570186</v>
+        <v>0.05146732791935905</v>
       </c>
       <c r="BG247" t="n">
-        <v>0.2442745524598651</v>
+        <v>0.1508439120994457</v>
       </c>
     </row>
     <row r="248">
@@ -44886,178 +44886,178 @@
         <v>246</v>
       </c>
       <c r="B248" s="2" t="n">
-        <v>44097</v>
+        <v>44435</v>
       </c>
       <c r="C248" t="n">
-        <v>135.1253817872288</v>
+        <v>119.0757490043536</v>
       </c>
       <c r="D248" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E248" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F248" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G248" t="n">
-        <v>1.160732522542028</v>
+        <v>0.8209712189160222</v>
       </c>
       <c r="H248" t="n">
-        <v>0.2398523151839813</v>
+        <v>0.2332959776945855</v>
       </c>
       <c r="I248" t="n">
-        <v>-0.7253346321170538</v>
+        <v>-0.8397674391022408</v>
       </c>
       <c r="J248" t="n">
-        <v>26.93022811538878</v>
+        <v>16.5143618149253</v>
       </c>
       <c r="K248" t="n">
-        <v>0.3943373957626004</v>
+        <v>0.5893948805575345</v>
       </c>
       <c r="L248" t="n">
-        <v>0.3045079666876453</v>
+        <v>0.6555964071133384</v>
       </c>
       <c r="M248" t="n">
-        <v>4.198320492348969</v>
+        <v>2.641322061019849</v>
       </c>
       <c r="N248" t="n">
-        <v>1.405919354865443</v>
+        <v>0.3755982363512226</v>
       </c>
       <c r="O248" t="n">
-        <v>1.556980741608223</v>
+        <v>2.178852663914667</v>
       </c>
       <c r="P248" t="n">
-        <v>3.179463004574471</v>
+        <v>3.09898810111922</v>
       </c>
       <c r="Q248" t="n">
-        <v>4.48717328613235</v>
+        <v>5.884105495411288</v>
       </c>
       <c r="R248" t="n">
-        <v>0.176129944187204</v>
+        <v>0.06753285539639695</v>
       </c>
       <c r="S248" t="n">
-        <v>2.170318111753553</v>
+        <v>2.25552699550513</v>
       </c>
       <c r="T248" t="n">
-        <v>0.2028548312080156</v>
+        <v>0.1566841016046679</v>
       </c>
       <c r="U248" t="n">
-        <v>1.494180795063982</v>
+        <v>0.7418286334861447</v>
       </c>
       <c r="V248" t="n">
-        <v>13.94109861737403</v>
+        <v>5.695236547530074</v>
       </c>
       <c r="W248" t="n">
-        <v>1.884575380391035</v>
+        <v>2.048974535359683</v>
       </c>
       <c r="X248" t="n">
-        <v>2.517697741318019</v>
+        <v>1.978229009216233</v>
       </c>
       <c r="Y248" t="n">
-        <v>5.08029834693954</v>
+        <v>3.964793882897074</v>
       </c>
       <c r="Z248" t="n">
-        <v>1.346660727352309</v>
+        <v>2.542968162981691</v>
       </c>
       <c r="AA248" t="n">
-        <v>1.646663695887347</v>
+        <v>0.6333901808511083</v>
       </c>
       <c r="AB248" t="n">
-        <v>0.6541630289711274</v>
+        <v>0.3333675847444718</v>
       </c>
       <c r="AC248" t="n">
-        <v>6.36147315198057</v>
+        <v>6.901404631178401</v>
       </c>
       <c r="AD248" t="n">
-        <v>9.821093176621888</v>
+        <v>4.960079194167498</v>
       </c>
       <c r="AE248" t="n">
-        <v>2.412435295956729</v>
+        <v>2.392682392463191</v>
       </c>
       <c r="AF248" t="n">
-        <v>0.748345375188426</v>
+        <v>0.5377618004565704</v>
       </c>
       <c r="AG248" t="n">
-        <v>1.373434123097828</v>
+        <v>1.574263389962028</v>
       </c>
       <c r="AH248" t="n">
-        <v>0.7688317408465271</v>
+        <v>0.6394153439397474</v>
       </c>
       <c r="AI248" t="n">
-        <v>1.03141325383898</v>
+        <v>0.4041254385976232</v>
       </c>
       <c r="AJ248" t="n">
-        <v>4.522541246666365</v>
+        <v>4.723310816624077</v>
       </c>
       <c r="AK248" t="n">
-        <v>0.2729161734323013</v>
+        <v>0.1276028818057082</v>
       </c>
       <c r="AL248" t="n">
-        <v>-0.06459309571337969</v>
+        <v>0.1799426854309628</v>
       </c>
       <c r="AM248" t="n">
-        <v>0.7222166922930262</v>
+        <v>0.3918336765050779</v>
       </c>
       <c r="AN248" t="n">
-        <v>0.6909968279342984</v>
+        <v>0.4356717649242344</v>
       </c>
       <c r="AO248" t="n">
-        <v>1.277198174883941</v>
+        <v>2.814396666652115</v>
       </c>
       <c r="AP248" t="n">
-        <v>0.4253750150880777</v>
+        <v>0.6932508717092325</v>
       </c>
       <c r="AQ248" t="n">
-        <v>-0.1395822882108599</v>
+        <v>-0.02917829176692497</v>
       </c>
       <c r="AR248" t="n">
-        <v>1.03209337731286</v>
+        <v>1.602758401031146</v>
       </c>
       <c r="AS248" t="n">
-        <v>15.58153127217874</v>
+        <v>23.69952208719778</v>
       </c>
       <c r="AT248" t="n">
-        <v>-0.09715854370390725</v>
+        <v>0.1816995760999782</v>
       </c>
       <c r="AU248" t="n">
-        <v>-0.04849428618118942</v>
+        <v>0.2978937141106986</v>
       </c>
       <c r="AV248" t="n">
-        <v>1.178141935745565</v>
+        <v>0.5325687293357871</v>
       </c>
       <c r="AW248" t="n">
-        <v>0.677296040777973</v>
+        <v>3.76037590464012</v>
       </c>
       <c r="AX248" t="n">
-        <v>1.40412333276057</v>
+        <v>0.5907943968408148</v>
       </c>
       <c r="AY248" t="n">
-        <v>0.1192100683049409</v>
+        <v>0.1381562914793078</v>
       </c>
       <c r="AZ248" t="n">
-        <v>0.429400372881388</v>
+        <v>0.5329022214842486</v>
       </c>
       <c r="BA248" t="n">
-        <v>6.403695129084351</v>
+        <v>5.993606797439471</v>
       </c>
       <c r="BB248" t="n">
-        <v>2.023638806488819</v>
+        <v>0.6459427887373215</v>
       </c>
       <c r="BC248" t="n">
-        <v>0.6123168024059205</v>
+        <v>0.9250729125887428</v>
       </c>
       <c r="BD248" t="n">
-        <v>0.4936912093644956</v>
+        <v>0.3063754165370978</v>
       </c>
       <c r="BE248" t="n">
-        <v>0.6056880134367603</v>
+        <v>0.3485265232218098</v>
       </c>
       <c r="BF248" t="n">
-        <v>-0.007823345236570186</v>
+        <v>0.05146732791935905</v>
       </c>
       <c r="BG248" t="n">
-        <v>0.2471149542797345</v>
+        <v>0.1502707455468995</v>
       </c>
     </row>
     <row r="249">
@@ -45065,178 +45065,178 @@
         <v>247</v>
       </c>
       <c r="B249" s="2" t="n">
-        <v>44098</v>
+        <v>44438</v>
       </c>
       <c r="C249" t="n">
-        <v>132.4112769812821</v>
+        <v>105.2169674226872</v>
       </c>
       <c r="D249" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E249" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F249" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G249" t="n">
-        <v>1.12379584349222</v>
+        <v>0.781614405431871</v>
       </c>
       <c r="H249" t="n">
-        <v>0.2396314566936845</v>
+        <v>0.2254446707427434</v>
       </c>
       <c r="I249" t="n">
-        <v>-0.6988275275345529</v>
+        <v>-0.8530883317537096</v>
       </c>
       <c r="J249" t="n">
-        <v>26.10632216800623</v>
+        <v>9.969018061138602</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3924903821494583</v>
+        <v>0.6543878275492527</v>
       </c>
       <c r="L249" t="n">
-        <v>0.2855177184469114</v>
+        <v>0.6526062296736509</v>
       </c>
       <c r="M249" t="n">
-        <v>4.220497412963093</v>
+        <v>2.536973535315263</v>
       </c>
       <c r="N249" t="n">
-        <v>1.350288404626298</v>
+        <v>0.3616772434099497</v>
       </c>
       <c r="O249" t="n">
-        <v>1.526695156994689</v>
+        <v>2.026867809440146</v>
       </c>
       <c r="P249" t="n">
-        <v>3.106730190777162</v>
+        <v>2.865371161208838</v>
       </c>
       <c r="Q249" t="n">
-        <v>4.397157733059783</v>
+        <v>4.891488066687514</v>
       </c>
       <c r="R249" t="n">
-        <v>0.1711716070002629</v>
+        <v>0.06714056041606803</v>
       </c>
       <c r="S249" t="n">
-        <v>2.10942318859465</v>
+        <v>1.778376853803194</v>
       </c>
       <c r="T249" t="n">
-        <v>0.1997721347372332</v>
+        <v>0.151615920673504</v>
       </c>
       <c r="U249" t="n">
-        <v>1.477852722905018</v>
+        <v>0.7304077129439598</v>
       </c>
       <c r="V249" t="n">
-        <v>13.62511938810155</v>
+        <v>5.234188894473566</v>
       </c>
       <c r="W249" t="n">
-        <v>1.82471922926975</v>
+        <v>2.102542496957303</v>
       </c>
       <c r="X249" t="n">
-        <v>2.438000834188644</v>
+        <v>2.562243559517025</v>
       </c>
       <c r="Y249" t="n">
-        <v>5.010548079104554</v>
+        <v>3.793244552644766</v>
       </c>
       <c r="Z249" t="n">
-        <v>1.32324939194225</v>
+        <v>3.039904717058935</v>
       </c>
       <c r="AA249" t="n">
-        <v>1.671287287031061</v>
+        <v>0.6058070600550843</v>
       </c>
       <c r="AB249" t="n">
-        <v>0.6453291099495014</v>
+        <v>0.3318648007508874</v>
       </c>
       <c r="AC249" t="n">
-        <v>6.310072087568175</v>
+        <v>5.341818021231289</v>
       </c>
       <c r="AD249" t="n">
-        <v>9.720064064463255</v>
+        <v>4.979649625497863</v>
       </c>
       <c r="AE249" t="n">
-        <v>2.360639923865916</v>
+        <v>2.319137845393682</v>
       </c>
       <c r="AF249" t="n">
-        <v>0.7052308267984179</v>
+        <v>0.5214200414705672</v>
       </c>
       <c r="AG249" t="n">
-        <v>1.318777900216378</v>
+        <v>1.578310339576686</v>
       </c>
       <c r="AH249" t="n">
-        <v>0.7591401946873821</v>
+        <v>0.6278220391089716</v>
       </c>
       <c r="AI249" t="n">
-        <v>0.9997014552111373</v>
+        <v>0.4031765848215657</v>
       </c>
       <c r="AJ249" t="n">
-        <v>4.465607229883759</v>
+        <v>3.561541160081743</v>
       </c>
       <c r="AK249" t="n">
-        <v>0.2587387098752419</v>
+        <v>0.1253011387303538</v>
       </c>
       <c r="AL249" t="n">
-        <v>-0.06187910010561194</v>
+        <v>0.1774335244996695</v>
       </c>
       <c r="AM249" t="n">
-        <v>0.7015913333080809</v>
+        <v>0.3502269712482276</v>
       </c>
       <c r="AN249" t="n">
-        <v>0.6551073326333176</v>
+        <v>0.4262769888226006</v>
       </c>
       <c r="AO249" t="n">
-        <v>1.312033897418077</v>
+        <v>2.816813702625964</v>
       </c>
       <c r="AP249" t="n">
-        <v>0.4217414016422847</v>
+        <v>0.6741931036170528</v>
       </c>
       <c r="AQ249" t="n">
-        <v>-0.1280872762410592</v>
+        <v>-0.02995497847018538</v>
       </c>
       <c r="AR249" t="n">
-        <v>1.02538676422138</v>
+        <v>1.421789973671587</v>
       </c>
       <c r="AS249" t="n">
-        <v>15.24814812523868</v>
+        <v>21.33017755857639</v>
       </c>
       <c r="AT249" t="n">
-        <v>-0.0919591647607821</v>
+        <v>0.1887637057912042</v>
       </c>
       <c r="AU249" t="n">
-        <v>-0.04694832738321793</v>
+        <v>0.2929149890874906</v>
       </c>
       <c r="AV249" t="n">
-        <v>1.150051595099801</v>
+        <v>0.4686156815133526</v>
       </c>
       <c r="AW249" t="n">
-        <v>0.6627953021429985</v>
+        <v>3.873261729043106</v>
       </c>
       <c r="AX249" t="n">
-        <v>1.440252105790973</v>
+        <v>0.4749474301759206</v>
       </c>
       <c r="AY249" t="n">
-        <v>0.1150049551572752</v>
+        <v>0.1488783446331992</v>
       </c>
       <c r="AZ249" t="n">
-        <v>0.4143336931189983</v>
+        <v>0.4424006504881364</v>
       </c>
       <c r="BA249" t="n">
-        <v>6.251045760576286</v>
+        <v>5.824589686129154</v>
       </c>
       <c r="BB249" t="n">
-        <v>2.002134198052793</v>
+        <v>0.6420760256858895</v>
       </c>
       <c r="BC249" t="n">
-        <v>0.5994409817900385</v>
+        <v>0.9389907598136989</v>
       </c>
       <c r="BD249" t="n">
-        <v>0.4784516386301987</v>
+        <v>0.3111387158983079</v>
       </c>
       <c r="BE249" t="n">
-        <v>0.5830931536901696</v>
+        <v>0.2744970775864439</v>
       </c>
       <c r="BF249" t="n">
-        <v>-0.007823345236570186</v>
+        <v>0.05146732791935905</v>
       </c>
       <c r="BG249" t="n">
-        <v>0.2426176514289482</v>
+        <v>0.1495938502794447</v>
       </c>
     </row>
     <row r="250">
@@ -45244,178 +45244,178 @@
         <v>248</v>
       </c>
       <c r="B250" s="2" t="n">
-        <v>44099</v>
+        <v>44439</v>
       </c>
       <c r="C250" t="n">
-        <v>129.8298603095301</v>
+        <v>99.58033850502618</v>
       </c>
       <c r="D250" t="n">
-        <v>115.7502525780157</v>
+        <v>114.828906859179</v>
       </c>
       <c r="E250" t="n">
-        <v>132.4441433071513</v>
+        <v>130.8366923924862</v>
       </c>
       <c r="F250" t="n">
-        <v>99.05636184888007</v>
+        <v>98.82112132587187</v>
       </c>
       <c r="G250" t="n">
-        <v>1.098578450739827</v>
+        <v>0.7869738614919398</v>
       </c>
       <c r="H250" t="n">
-        <v>0.2323431266758025</v>
+        <v>0.2247156208121948</v>
       </c>
       <c r="I250" t="n">
-        <v>-0.6900767847146362</v>
+        <v>-0.8145036774390015</v>
       </c>
       <c r="J250" t="n">
-        <v>25.72311009858781</v>
+        <v>9.557146081865998</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3829089992935724</v>
+        <v>0.6198603244693828</v>
       </c>
       <c r="L250" t="n">
-        <v>0.279674565133382</v>
+        <v>0.6529800018451408</v>
       </c>
       <c r="M250" t="n">
-        <v>4.045376212001927</v>
+        <v>2.458712140634628</v>
       </c>
       <c r="N250" t="n">
-        <v>1.350579666171577</v>
+        <v>0.3503972105892663</v>
       </c>
       <c r="O250" t="n">
-        <v>1.498382196714817</v>
+        <v>2.028077054706663</v>
       </c>
       <c r="P250" t="n">
-        <v>3.068909127593217</v>
+        <v>2.745988945541854</v>
       </c>
       <c r="Q250" t="n">
-        <v>4.310089792597458</v>
+        <v>4.494924807271842</v>
       </c>
       <c r="R250" t="n">
-        <v>0.1686924384177423</v>
+        <v>0.06516455604394107</v>
       </c>
       <c r="S250" t="n">
-        <v>2.054867484598397</v>
+        <v>1.780316901306085</v>
       </c>
       <c r="T250" t="n">
-        <v>0.1970915291136851</v>
+        <v>0.1474926548437507</v>
       </c>
       <c r="U250" t="n">
-        <v>1.467147563058933</v>
+        <v>0.7002783947646674</v>
       </c>
       <c r="V250" t="n">
-        <v>13.13016445534439</v>
+        <v>5.417227770319023</v>
       </c>
       <c r="W250" t="n">
-        <v>1.815785475391086</v>
+        <v>2.082789310967167</v>
       </c>
       <c r="X250" t="n">
-        <v>2.364039689564834</v>
+        <v>2.561030758657961</v>
       </c>
       <c r="Y250" t="n">
-        <v>4.803406923866889</v>
+        <v>3.723779846710969</v>
       </c>
       <c r="Z250" t="n">
-        <v>1.329611167909766</v>
+        <v>2.997959771830328</v>
       </c>
       <c r="AA250" t="n">
-        <v>1.61549459326162</v>
+        <v>0.6027933487332848</v>
       </c>
       <c r="AB250" t="n">
-        <v>0.6447628330855805</v>
+        <v>0.3175257366944626</v>
       </c>
       <c r="AC250" t="n">
-        <v>6.11242531709895</v>
+        <v>5.133278578969207</v>
       </c>
       <c r="AD250" t="n">
-        <v>9.300527382003558</v>
+        <v>4.512195897181468</v>
       </c>
       <c r="AE250" t="n">
-        <v>2.247392415362674</v>
+        <v>1.809177771879275</v>
       </c>
       <c r="AF250" t="n">
-        <v>0.7384906212760207</v>
+        <v>0.5261372502318272</v>
       </c>
       <c r="AG250" t="n">
-        <v>1.307772670896384</v>
+        <v>1.423109822853182</v>
       </c>
       <c r="AH250" t="n">
-        <v>0.7601139864011929</v>
+        <v>0.6193202823357912</v>
       </c>
       <c r="AI250" t="n">
-        <v>0.9903438752795437</v>
+        <v>0.2710999654859732</v>
       </c>
       <c r="AJ250" t="n">
-        <v>4.418574781272981</v>
+        <v>3.205303272717423</v>
       </c>
       <c r="AK250" t="n">
-        <v>0.2546036163446149</v>
+        <v>0.1202660757530159</v>
       </c>
       <c r="AL250" t="n">
-        <v>-0.06143499172066261</v>
+        <v>0.1736339378987191</v>
       </c>
       <c r="AM250" t="n">
-        <v>0.6939116783219313</v>
+        <v>0.3441980249129351</v>
       </c>
       <c r="AN250" t="n">
-        <v>0.6628806334287431</v>
+        <v>0.4201308736622198</v>
       </c>
       <c r="AO250" t="n">
-        <v>1.247386835304759</v>
+        <v>2.730767222631526</v>
       </c>
       <c r="AP250" t="n">
-        <v>0.4105983203915702</v>
+        <v>0.6626012653768172</v>
       </c>
       <c r="AQ250" t="n">
-        <v>-0.1236438262313235</v>
+        <v>-0.02980136319911854</v>
       </c>
       <c r="AR250" t="n">
-        <v>1.007804562238993</v>
+        <v>1.389700963817603</v>
       </c>
       <c r="AS250" t="n">
-        <v>15.24523223724814</v>
+        <v>19.02081997221928</v>
       </c>
       <c r="AT250" t="n">
-        <v>-0.09063991935987897</v>
+        <v>0.1876533310769793</v>
       </c>
       <c r="AU250" t="n">
-        <v>-0.04593124924511403</v>
+        <v>0.2899514622796129</v>
       </c>
       <c r="AV250" t="n">
-        <v>1.134354051847578</v>
+        <v>0.4708313584808207</v>
       </c>
       <c r="AW250" t="n">
-        <v>0.6498561814441353</v>
+        <v>3.751856219802649</v>
       </c>
       <c r="AX250" t="n">
-        <v>1.413920966152845</v>
+        <v>0.481498429260087</v>
       </c>
       <c r="AY250" t="n">
-        <v>0.1098219087048723</v>
+        <v>0.1453629173757958</v>
       </c>
       <c r="AZ250" t="n">
-        <v>0.4091793026894112</v>
+        <v>0.4434862962969149</v>
       </c>
       <c r="BA250" t="n">
-        <v>6.235889086007952</v>
+        <v>5.816788896300422</v>
       </c>
       <c r="BB250" t="n">
-        <v>2.019227604777242</v>
+        <v>0.6602498125187451</v>
       </c>
       <c r="BC250" t="n">
-        <v>0.5965796883002038</v>
+        <v>0.7317572468037417</v>
       </c>
       <c r="BD250" t="n">
-        <v>0.473135509341587</v>
+        <v>0.3080902043226217</v>
       </c>
       <c r="BE250" t="n">
-        <v>0.5852797530355924</v>
+        <v>0.2613951673302732</v>
       </c>
       <c r="BF250" t="n">
-        <v>-0.007823345236570186</v>
+        <v>0.05146732791935905</v>
       </c>
       <c r="BG250" t="n">
-        <v>0.2430910517445292</v>
+        <v>0.1463785978694593</v>
       </c>
     </row>
   </sheetData>
